--- a/backend/templates/168_16cp_kranti.xlsx
+++ b/backend/templates/168_16cp_kranti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E019D748-9078-427B-B6F3-7931BA834585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D246CED-F15A-4A56-9B9E-B8C81F72C43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="1" r:id="rId1"/>
@@ -1430,15 +1430,89 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1459,65 +1533,52 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1590,107 +1651,192 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1720,11 +1866,9 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1781,156 +1925,76 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1975,59 +2039,102 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2044,14 +2151,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2082,13 +2181,7 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2097,100 +2190,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2572,7 +2572,7 @@
   <dimension ref="A1:O78"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:E24"/>
+      <selection activeCell="D8" sqref="D8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2584,165 +2584,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="326" t="s">
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="169" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="326"/>
+      <c r="O1" s="169"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="327" t="s">
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150"/>
+      <c r="M2" s="150"/>
+      <c r="N2" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="327"/>
+      <c r="O2" s="170"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="131"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="325" t="s">
+      <c r="A3" s="150"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="104"/>
+      <c r="O3" s="329"/>
     </row>
     <row r="4" spans="1:15" s="29" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="140" t="s">
+      <c r="A4" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="141"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="141" t="s">
+      <c r="B4" s="160"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="141"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="134"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="153"/>
       <c r="J4" s="95" t="s">
         <v>5</v>
       </c>
       <c r="K4" s="96"/>
-      <c r="L4" s="148" t="s">
+      <c r="L4" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="149"/>
-      <c r="N4" s="138"/>
-      <c r="O4" s="139"/>
+      <c r="M4" s="168"/>
+      <c r="N4" s="157"/>
+      <c r="O4" s="158"/>
     </row>
     <row r="5" spans="1:15" s="29" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="142" t="s">
+      <c r="A5" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="143"/>
-      <c r="C5" s="135"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="137"/>
-      <c r="F5" s="143" t="s">
+      <c r="B5" s="162"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="143"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="137"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="156"/>
       <c r="J5" s="97" t="s">
         <v>6</v>
       </c>
       <c r="K5" s="98"/>
-      <c r="L5" s="146" t="s">
+      <c r="L5" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="147"/>
-      <c r="N5" s="144"/>
-      <c r="O5" s="145"/>
+      <c r="M5" s="166"/>
+      <c r="N5" s="163"/>
+      <c r="O5" s="164"/>
     </row>
     <row r="6" spans="1:15" thickBot="1">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="118"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="118"/>
-      <c r="M6" s="118"/>
-      <c r="N6" s="157"/>
-      <c r="O6" s="158"/>
+      <c r="B6" s="172"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="173"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="180"/>
+      <c r="I6" s="181"/>
+      <c r="J6" s="173"/>
+      <c r="K6" s="177"/>
+      <c r="L6" s="172"/>
+      <c r="M6" s="172"/>
+      <c r="N6" s="135"/>
+      <c r="O6" s="136"/>
     </row>
     <row r="7" spans="1:15" s="67" customFormat="1" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A7" s="120" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="121" t="s">
+      <c r="A7" s="174" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="175"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="175" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="121"/>
-      <c r="F7" s="125" t="s">
+      <c r="E7" s="175"/>
+      <c r="F7" s="179" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="125"/>
-      <c r="H7" s="128" t="s">
+      <c r="G7" s="179"/>
+      <c r="H7" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="129"/>
-      <c r="J7" s="122" t="s">
+      <c r="I7" s="183"/>
+      <c r="J7" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="124"/>
-      <c r="L7" s="121" t="s">
+      <c r="K7" s="178"/>
+      <c r="L7" s="175" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="121"/>
-      <c r="N7" s="105" t="s">
+      <c r="M7" s="175"/>
+      <c r="N7" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="106" t="s">
+      <c r="O7" s="105" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2750,16 +2750,16 @@
       <c r="A8" s="90"/>
       <c r="B8" s="91"/>
       <c r="C8" s="91"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="111"/>
-      <c r="M8" s="111"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="134"/>
+      <c r="M8" s="134"/>
       <c r="N8" s="68"/>
       <c r="O8" s="69"/>
     </row>
@@ -2767,16 +2767,16 @@
       <c r="A9" s="90"/>
       <c r="B9" s="92"/>
       <c r="C9" s="91"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="125"/>
+      <c r="K9" s="125"/>
+      <c r="L9" s="129"/>
+      <c r="M9" s="129"/>
       <c r="N9" s="70"/>
       <c r="O9" s="71"/>
     </row>
@@ -2784,16 +2784,16 @@
       <c r="A10" s="90"/>
       <c r="B10" s="92"/>
       <c r="C10" s="91"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="129"/>
+      <c r="M10" s="129"/>
       <c r="N10" s="70"/>
       <c r="O10" s="71"/>
     </row>
@@ -2801,16 +2801,16 @@
       <c r="A11" s="90"/>
       <c r="B11" s="91"/>
       <c r="C11" s="91"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="130"/>
+      <c r="K11" s="130"/>
+      <c r="L11" s="134"/>
+      <c r="M11" s="134"/>
       <c r="N11" s="68"/>
       <c r="O11" s="69"/>
     </row>
@@ -2818,16 +2818,16 @@
       <c r="A12" s="90"/>
       <c r="B12" s="92"/>
       <c r="C12" s="91"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="116"/>
-      <c r="M12" s="116"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="125"/>
+      <c r="K12" s="125"/>
+      <c r="L12" s="129"/>
+      <c r="M12" s="129"/>
       <c r="N12" s="70"/>
       <c r="O12" s="71"/>
     </row>
@@ -2835,16 +2835,16 @@
       <c r="A13" s="90"/>
       <c r="B13" s="92"/>
       <c r="C13" s="91"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="112"/>
-      <c r="L13" s="116"/>
-      <c r="M13" s="116"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="125"/>
+      <c r="K13" s="125"/>
+      <c r="L13" s="129"/>
+      <c r="M13" s="129"/>
       <c r="N13" s="70"/>
       <c r="O13" s="71"/>
     </row>
@@ -2852,16 +2852,16 @@
       <c r="A14" s="90"/>
       <c r="B14" s="92"/>
       <c r="C14" s="91"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="116"/>
-      <c r="M14" s="116"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="129"/>
+      <c r="M14" s="129"/>
       <c r="N14" s="70"/>
       <c r="O14" s="71"/>
     </row>
@@ -2869,16 +2869,16 @@
       <c r="A15" s="90"/>
       <c r="B15" s="92"/>
       <c r="C15" s="91"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="112"/>
-      <c r="K15" s="112"/>
-      <c r="L15" s="116"/>
-      <c r="M15" s="116"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="125"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="129"/>
+      <c r="M15" s="129"/>
       <c r="N15" s="70"/>
       <c r="O15" s="71"/>
     </row>
@@ -2886,16 +2886,16 @@
       <c r="A16" s="90"/>
       <c r="B16" s="92"/>
       <c r="C16" s="91"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="112"/>
-      <c r="K16" s="112"/>
-      <c r="L16" s="116"/>
-      <c r="M16" s="116"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="125"/>
+      <c r="K16" s="125"/>
+      <c r="L16" s="129"/>
+      <c r="M16" s="129"/>
       <c r="N16" s="70"/>
       <c r="O16" s="71"/>
     </row>
@@ -2903,16 +2903,16 @@
       <c r="A17" s="90"/>
       <c r="B17" s="92"/>
       <c r="C17" s="91"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="112"/>
-      <c r="L17" s="116"/>
-      <c r="M17" s="116"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="129"/>
+      <c r="M17" s="129"/>
       <c r="N17" s="70"/>
       <c r="O17" s="71"/>
     </row>
@@ -2920,16 +2920,16 @@
       <c r="A18" s="90"/>
       <c r="B18" s="92"/>
       <c r="C18" s="91"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="112"/>
-      <c r="K18" s="112"/>
-      <c r="L18" s="116"/>
-      <c r="M18" s="116"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="129"/>
+      <c r="M18" s="129"/>
       <c r="N18" s="70"/>
       <c r="O18" s="71"/>
     </row>
@@ -2937,16 +2937,16 @@
       <c r="A19" s="90"/>
       <c r="B19" s="92"/>
       <c r="C19" s="91"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="112"/>
-      <c r="K19" s="112"/>
-      <c r="L19" s="116"/>
-      <c r="M19" s="116"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="125"/>
+      <c r="K19" s="125"/>
+      <c r="L19" s="129"/>
+      <c r="M19" s="129"/>
       <c r="N19" s="70"/>
       <c r="O19" s="71"/>
     </row>
@@ -2954,16 +2954,16 @@
       <c r="A20" s="90"/>
       <c r="B20" s="92"/>
       <c r="C20" s="91"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="112"/>
-      <c r="K20" s="112"/>
-      <c r="L20" s="116"/>
-      <c r="M20" s="116"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="125"/>
+      <c r="K20" s="125"/>
+      <c r="L20" s="129"/>
+      <c r="M20" s="129"/>
       <c r="N20" s="70"/>
       <c r="O20" s="71"/>
     </row>
@@ -2971,16 +2971,16 @@
       <c r="A21" s="90"/>
       <c r="B21" s="91"/>
       <c r="C21" s="91"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="111"/>
-      <c r="M21" s="111"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="131"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="130"/>
+      <c r="K21" s="130"/>
+      <c r="L21" s="134"/>
+      <c r="M21" s="134"/>
       <c r="N21" s="68"/>
       <c r="O21" s="69"/>
     </row>
@@ -2988,16 +2988,16 @@
       <c r="A22" s="90"/>
       <c r="B22" s="92"/>
       <c r="C22" s="91"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="112"/>
-      <c r="L22" s="116"/>
-      <c r="M22" s="116"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="125"/>
+      <c r="K22" s="125"/>
+      <c r="L22" s="129"/>
+      <c r="M22" s="129"/>
       <c r="N22" s="70"/>
       <c r="O22" s="71"/>
     </row>
@@ -3005,16 +3005,16 @@
       <c r="A23" s="90"/>
       <c r="B23" s="92"/>
       <c r="C23" s="91"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="112"/>
-      <c r="K23" s="112"/>
-      <c r="L23" s="116"/>
-      <c r="M23" s="116"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="126"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="128"/>
+      <c r="J23" s="125"/>
+      <c r="K23" s="125"/>
+      <c r="L23" s="129"/>
+      <c r="M23" s="129"/>
       <c r="N23" s="70"/>
       <c r="O23" s="71"/>
     </row>
@@ -3022,16 +3022,16 @@
       <c r="A24" s="90"/>
       <c r="B24" s="91"/>
       <c r="C24" s="91"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="111"/>
-      <c r="M24" s="111"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="133"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="130"/>
+      <c r="L24" s="134"/>
+      <c r="M24" s="134"/>
       <c r="N24" s="68"/>
       <c r="O24" s="69"/>
     </row>
@@ -3039,16 +3039,16 @@
       <c r="A25" s="90"/>
       <c r="B25" s="92"/>
       <c r="C25" s="91"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="112"/>
-      <c r="K25" s="112"/>
-      <c r="L25" s="116"/>
-      <c r="M25" s="116"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="127"/>
+      <c r="I25" s="128"/>
+      <c r="J25" s="125"/>
+      <c r="K25" s="125"/>
+      <c r="L25" s="129"/>
+      <c r="M25" s="129"/>
       <c r="N25" s="70"/>
       <c r="O25" s="71"/>
     </row>
@@ -3056,16 +3056,16 @@
       <c r="A26" s="90"/>
       <c r="B26" s="92"/>
       <c r="C26" s="91"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="114"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="112"/>
-      <c r="K26" s="112"/>
-      <c r="L26" s="116"/>
-      <c r="M26" s="116"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="127"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="125"/>
+      <c r="K26" s="125"/>
+      <c r="L26" s="129"/>
+      <c r="M26" s="129"/>
       <c r="N26" s="70"/>
       <c r="O26" s="71"/>
     </row>
@@ -3073,16 +3073,16 @@
       <c r="A27" s="90"/>
       <c r="B27" s="92"/>
       <c r="C27" s="91"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="112"/>
-      <c r="K27" s="112"/>
-      <c r="L27" s="116"/>
-      <c r="M27" s="116"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="127"/>
+      <c r="I27" s="128"/>
+      <c r="J27" s="125"/>
+      <c r="K27" s="125"/>
+      <c r="L27" s="129"/>
+      <c r="M27" s="129"/>
       <c r="N27" s="70"/>
       <c r="O27" s="71"/>
     </row>
@@ -3090,16 +3090,16 @@
       <c r="A28" s="90"/>
       <c r="B28" s="92"/>
       <c r="C28" s="91"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="112"/>
-      <c r="K28" s="112"/>
-      <c r="L28" s="116"/>
-      <c r="M28" s="116"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="126"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="128"/>
+      <c r="J28" s="125"/>
+      <c r="K28" s="125"/>
+      <c r="L28" s="129"/>
+      <c r="M28" s="129"/>
       <c r="N28" s="70"/>
       <c r="O28" s="71"/>
     </row>
@@ -3107,16 +3107,16 @@
       <c r="A29" s="90"/>
       <c r="B29" s="92"/>
       <c r="C29" s="91"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="112"/>
-      <c r="K29" s="112"/>
-      <c r="L29" s="116"/>
-      <c r="M29" s="116"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="127"/>
+      <c r="I29" s="128"/>
+      <c r="J29" s="125"/>
+      <c r="K29" s="125"/>
+      <c r="L29" s="129"/>
+      <c r="M29" s="129"/>
       <c r="N29" s="70"/>
       <c r="O29" s="71"/>
     </row>
@@ -3124,16 +3124,16 @@
       <c r="A30" s="90"/>
       <c r="B30" s="92"/>
       <c r="C30" s="91"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="114"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="112"/>
-      <c r="K30" s="112"/>
-      <c r="L30" s="116"/>
-      <c r="M30" s="116"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="127"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="125"/>
+      <c r="K30" s="125"/>
+      <c r="L30" s="129"/>
+      <c r="M30" s="129"/>
       <c r="N30" s="70"/>
       <c r="O30" s="71"/>
     </row>
@@ -3141,16 +3141,16 @@
       <c r="A31" s="90"/>
       <c r="B31" s="92"/>
       <c r="C31" s="91"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="112"/>
-      <c r="L31" s="116"/>
-      <c r="M31" s="116"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="126"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="128"/>
+      <c r="J31" s="125"/>
+      <c r="K31" s="125"/>
+      <c r="L31" s="129"/>
+      <c r="M31" s="129"/>
       <c r="N31" s="70"/>
       <c r="O31" s="71"/>
     </row>
@@ -3158,16 +3158,16 @@
       <c r="A32" s="90"/>
       <c r="B32" s="92"/>
       <c r="C32" s="91"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="112"/>
-      <c r="K32" s="112"/>
-      <c r="L32" s="116"/>
-      <c r="M32" s="116"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="125"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="127"/>
+      <c r="I32" s="128"/>
+      <c r="J32" s="125"/>
+      <c r="K32" s="125"/>
+      <c r="L32" s="129"/>
+      <c r="M32" s="129"/>
       <c r="N32" s="70"/>
       <c r="O32" s="71"/>
     </row>
@@ -3175,16 +3175,16 @@
       <c r="A33" s="90"/>
       <c r="B33" s="92"/>
       <c r="C33" s="91"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="114"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="112"/>
-      <c r="K33" s="112"/>
-      <c r="L33" s="116"/>
-      <c r="M33" s="116"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="126"/>
+      <c r="H33" s="127"/>
+      <c r="I33" s="128"/>
+      <c r="J33" s="125"/>
+      <c r="K33" s="125"/>
+      <c r="L33" s="129"/>
+      <c r="M33" s="129"/>
       <c r="N33" s="70"/>
       <c r="O33" s="71"/>
     </row>
@@ -3192,16 +3192,16 @@
       <c r="A34" s="90"/>
       <c r="B34" s="91"/>
       <c r="C34" s="91"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="108"/>
-      <c r="G34" s="108"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="110"/>
-      <c r="J34" s="107"/>
-      <c r="K34" s="107"/>
-      <c r="L34" s="111"/>
-      <c r="M34" s="111"/>
+      <c r="D34" s="130"/>
+      <c r="E34" s="130"/>
+      <c r="F34" s="131"/>
+      <c r="G34" s="131"/>
+      <c r="H34" s="132"/>
+      <c r="I34" s="133"/>
+      <c r="J34" s="130"/>
+      <c r="K34" s="130"/>
+      <c r="L34" s="134"/>
+      <c r="M34" s="134"/>
       <c r="N34" s="68"/>
       <c r="O34" s="69"/>
     </row>
@@ -3209,16 +3209,16 @@
       <c r="A35" s="90"/>
       <c r="B35" s="92"/>
       <c r="C35" s="91"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="113"/>
-      <c r="H35" s="114"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="112"/>
-      <c r="K35" s="112"/>
-      <c r="L35" s="116"/>
-      <c r="M35" s="116"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="126"/>
+      <c r="G35" s="126"/>
+      <c r="H35" s="127"/>
+      <c r="I35" s="128"/>
+      <c r="J35" s="125"/>
+      <c r="K35" s="125"/>
+      <c r="L35" s="129"/>
+      <c r="M35" s="129"/>
       <c r="N35" s="70"/>
       <c r="O35" s="71"/>
     </row>
@@ -3226,16 +3226,16 @@
       <c r="A36" s="90"/>
       <c r="B36" s="92"/>
       <c r="C36" s="91"/>
-      <c r="D36" s="112"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="113"/>
-      <c r="G36" s="113"/>
-      <c r="H36" s="114"/>
-      <c r="I36" s="115"/>
-      <c r="J36" s="112"/>
-      <c r="K36" s="112"/>
-      <c r="L36" s="116"/>
-      <c r="M36" s="116"/>
+      <c r="D36" s="125"/>
+      <c r="E36" s="125"/>
+      <c r="F36" s="126"/>
+      <c r="G36" s="126"/>
+      <c r="H36" s="127"/>
+      <c r="I36" s="128"/>
+      <c r="J36" s="125"/>
+      <c r="K36" s="125"/>
+      <c r="L36" s="129"/>
+      <c r="M36" s="129"/>
       <c r="N36" s="70"/>
       <c r="O36" s="71"/>
     </row>
@@ -3243,50 +3243,50 @@
       <c r="A37" s="90"/>
       <c r="B37" s="91"/>
       <c r="C37" s="91"/>
-      <c r="D37" s="159"/>
-      <c r="E37" s="159"/>
-      <c r="F37" s="160"/>
-      <c r="G37" s="160"/>
-      <c r="H37" s="161"/>
-      <c r="I37" s="162"/>
-      <c r="J37" s="159"/>
-      <c r="K37" s="159"/>
-      <c r="L37" s="163"/>
-      <c r="M37" s="163"/>
+      <c r="D37" s="137"/>
+      <c r="E37" s="137"/>
+      <c r="F37" s="138"/>
+      <c r="G37" s="138"/>
+      <c r="H37" s="139"/>
+      <c r="I37" s="140"/>
+      <c r="J37" s="137"/>
+      <c r="K37" s="137"/>
+      <c r="L37" s="141"/>
+      <c r="M37" s="141"/>
       <c r="N37" s="72"/>
       <c r="O37" s="73"/>
     </row>
     <row r="38" spans="1:15" s="74" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="A38" s="170" t="s">
+      <c r="A38" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="171"/>
-      <c r="C38" s="171"/>
-      <c r="D38" s="164" t="e">
+      <c r="B38" s="114"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="107" t="e">
         <f>AVERAGE(D8:E37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="164"/>
-      <c r="F38" s="176" t="e">
+      <c r="E38" s="107"/>
+      <c r="F38" s="119" t="e">
         <f t="shared" ref="F38" si="0">AVERAGE(F8:G37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="176"/>
-      <c r="H38" s="179" t="e">
+      <c r="G38" s="119"/>
+      <c r="H38" s="122" t="e">
         <f t="shared" ref="H38" si="1">AVERAGE(H8:I37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="179"/>
-      <c r="J38" s="164" t="e">
+      <c r="I38" s="122"/>
+      <c r="J38" s="107" t="e">
         <f t="shared" ref="J38" si="2">AVERAGE(J8:K37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="164"/>
-      <c r="L38" s="167" t="e">
+      <c r="K38" s="107"/>
+      <c r="L38" s="110" t="e">
         <f t="shared" ref="L38" si="3">AVERAGE(L8:M37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M38" s="167"/>
+      <c r="M38" s="110"/>
       <c r="N38" s="75" t="e">
         <f>AVERAGE(N8:N37)</f>
         <v>#DIV/0!</v>
@@ -3297,36 +3297,36 @@
       </c>
     </row>
     <row r="39" spans="1:15" s="74" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="A39" s="172" t="s">
+      <c r="A39" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="173"/>
-      <c r="C39" s="173"/>
-      <c r="D39" s="165">
+      <c r="B39" s="116"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="108">
         <f>MIN(D8:E37)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="165"/>
-      <c r="F39" s="177">
+      <c r="E39" s="108"/>
+      <c r="F39" s="120">
         <f t="shared" ref="F39" si="4">MIN(F8:G37)</f>
         <v>0</v>
       </c>
-      <c r="G39" s="177"/>
-      <c r="H39" s="180">
+      <c r="G39" s="120"/>
+      <c r="H39" s="123">
         <f t="shared" ref="H39" si="5">MIN(H8:I37)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="180"/>
-      <c r="J39" s="165">
+      <c r="I39" s="123"/>
+      <c r="J39" s="108">
         <f t="shared" ref="J39" si="6">MIN(J8:K37)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="165"/>
-      <c r="L39" s="168">
+      <c r="K39" s="108"/>
+      <c r="L39" s="111">
         <f t="shared" ref="L39" si="7">MIN(L8:M37)</f>
         <v>0</v>
       </c>
-      <c r="M39" s="168"/>
+      <c r="M39" s="111"/>
       <c r="N39" s="77">
         <f>MIN(N8:N37)</f>
         <v>0</v>
@@ -3337,36 +3337,36 @@
       </c>
     </row>
     <row r="40" spans="1:15" s="74" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A40" s="174" t="s">
+      <c r="A40" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="175"/>
-      <c r="C40" s="175"/>
-      <c r="D40" s="166">
+      <c r="B40" s="118"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="109">
         <f>MAX(D8:E37)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="166"/>
-      <c r="F40" s="178">
+      <c r="E40" s="109"/>
+      <c r="F40" s="121">
         <f t="shared" ref="F40" si="8">MAX(F8:G37)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="178"/>
-      <c r="H40" s="181">
+      <c r="G40" s="121"/>
+      <c r="H40" s="124">
         <f t="shared" ref="H40" si="9">MAX(H8:I37)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="181"/>
-      <c r="J40" s="166">
+      <c r="I40" s="124"/>
+      <c r="J40" s="109">
         <f t="shared" ref="J40" si="10">MAX(J8:K37)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="166"/>
-      <c r="L40" s="169">
+      <c r="K40" s="109"/>
+      <c r="L40" s="112">
         <f t="shared" ref="L40" si="11">MAX(L8:M37)</f>
         <v>0</v>
       </c>
-      <c r="M40" s="169"/>
+      <c r="M40" s="112"/>
       <c r="N40" s="79">
         <f>MIN(N8:N37)</f>
         <v>0</v>
@@ -3380,32 +3380,32 @@
       <c r="A41" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="153"/>
-      <c r="C41" s="153"/>
-      <c r="D41" s="156" t="s">
+      <c r="B41" s="145"/>
+      <c r="C41" s="145"/>
+      <c r="D41" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="156"/>
+      <c r="E41" s="148"/>
       <c r="F41" s="81"/>
       <c r="G41" s="82"/>
       <c r="H41" s="82"/>
       <c r="I41" s="82"/>
       <c r="J41" s="82"/>
-      <c r="K41" s="150" t="s">
+      <c r="K41" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="L41" s="150"/>
-      <c r="M41" s="152"/>
-      <c r="N41" s="152"/>
+      <c r="L41" s="142"/>
+      <c r="M41" s="144"/>
+      <c r="N41" s="144"/>
       <c r="O41" s="83" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="54" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A42" s="154" t="s">
+      <c r="A42" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="154"/>
+      <c r="B42" s="146"/>
       <c r="C42" s="86"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -3413,21 +3413,21 @@
       <c r="G42" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="H42" s="154" t="s">
+      <c r="H42" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="I42" s="154"/>
-      <c r="J42" s="154"/>
-      <c r="K42" s="154"/>
+      <c r="I42" s="146"/>
+      <c r="J42" s="146"/>
+      <c r="K42" s="146"/>
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A43" s="155" t="s">
+      <c r="A43" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="155"/>
+      <c r="B43" s="147"/>
       <c r="C43" s="87"/>
       <c r="D43" s="82"/>
       <c r="E43" s="82"/>
@@ -3470,107 +3470,181 @@
       <c r="M51" s="85"/>
     </row>
     <row r="75" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C75" s="151"/>
-      <c r="D75" s="151"/>
-      <c r="E75" s="151"/>
-      <c r="I75" s="151"/>
-      <c r="J75" s="151"/>
-      <c r="K75" s="151"/>
-      <c r="L75" s="151"/>
-      <c r="M75" s="151"/>
-      <c r="N75" s="151"/>
-      <c r="O75" s="151"/>
+      <c r="C75" s="143"/>
+      <c r="D75" s="143"/>
+      <c r="E75" s="143"/>
+      <c r="I75" s="143"/>
+      <c r="J75" s="143"/>
+      <c r="K75" s="143"/>
+      <c r="L75" s="143"/>
+      <c r="M75" s="143"/>
+      <c r="N75" s="143"/>
+      <c r="O75" s="143"/>
     </row>
     <row r="76" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C76" s="151"/>
-      <c r="D76" s="151"/>
-      <c r="E76" s="151"/>
-      <c r="F76" s="151"/>
-      <c r="I76" s="151"/>
-      <c r="J76" s="151"/>
-      <c r="K76" s="151"/>
-      <c r="L76" s="151"/>
-      <c r="M76" s="151"/>
-      <c r="N76" s="151"/>
-      <c r="O76" s="151"/>
+      <c r="C76" s="143"/>
+      <c r="D76" s="143"/>
+      <c r="E76" s="143"/>
+      <c r="F76" s="143"/>
+      <c r="I76" s="143"/>
+      <c r="J76" s="143"/>
+      <c r="K76" s="143"/>
+      <c r="L76" s="143"/>
+      <c r="M76" s="143"/>
+      <c r="N76" s="143"/>
+      <c r="O76" s="143"/>
     </row>
     <row r="77" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C77" s="151"/>
-      <c r="D77" s="151"/>
-      <c r="E77" s="151"/>
-      <c r="I77" s="151"/>
-      <c r="J77" s="151"/>
-      <c r="K77" s="151"/>
-      <c r="L77" s="151"/>
-      <c r="M77" s="151"/>
-      <c r="N77" s="151"/>
-      <c r="O77" s="151"/>
+      <c r="C77" s="143"/>
+      <c r="D77" s="143"/>
+      <c r="E77" s="143"/>
+      <c r="I77" s="143"/>
+      <c r="J77" s="143"/>
+      <c r="K77" s="143"/>
+      <c r="L77" s="143"/>
+      <c r="M77" s="143"/>
+      <c r="N77" s="143"/>
+      <c r="O77" s="143"/>
     </row>
     <row r="78" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C78" s="151"/>
-      <c r="D78" s="151"/>
-      <c r="E78" s="151"/>
+      <c r="C78" s="143"/>
+      <c r="D78" s="143"/>
+      <c r="E78" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="214">
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="I75:K75"/>
+    <mergeCell ref="L75:O75"/>
+    <mergeCell ref="L76:O76"/>
+    <mergeCell ref="L77:O77"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="I77:K77"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="H42:K42"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="L36:M36"/>
@@ -3595,138 +3669,64 @@
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="H36:I36"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="I75:K75"/>
-    <mergeCell ref="L75:O75"/>
-    <mergeCell ref="L76:O76"/>
-    <mergeCell ref="L77:O77"/>
-    <mergeCell ref="I76:K76"/>
-    <mergeCell ref="I77:K77"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="C76:F76"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="H6">
@@ -3758,7 +3758,7 @@
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3769,188 +3769,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="17" customFormat="1" ht="15.75">
-      <c r="A1" s="328" t="s">
+      <c r="A1" s="228" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="328"/>
-      <c r="C1" s="328"/>
-      <c r="D1" s="328"/>
-      <c r="E1" s="328"/>
-      <c r="F1" s="328"/>
-      <c r="G1" s="328"/>
-      <c r="H1" s="328"/>
-      <c r="I1" s="328"/>
-      <c r="J1" s="328"/>
-      <c r="K1" s="328"/>
-      <c r="L1" s="328"/>
-      <c r="M1" s="328"/>
-      <c r="N1" s="326" t="s">
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="228"/>
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+      <c r="K1" s="228"/>
+      <c r="L1" s="228"/>
+      <c r="M1" s="228"/>
+      <c r="N1" s="169" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="326"/>
+      <c r="O1" s="169"/>
     </row>
     <row r="2" spans="1:15" s="17" customFormat="1" ht="15.75">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="229" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="191"/>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="327" t="s">
+      <c r="B2" s="229"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="229"/>
+      <c r="K2" s="229"/>
+      <c r="L2" s="229"/>
+      <c r="M2" s="229"/>
+      <c r="N2" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="327"/>
+      <c r="O2" s="170"/>
     </row>
     <row r="3" spans="1:15" s="17" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="191"/>
-      <c r="B3" s="191"/>
-      <c r="C3" s="191"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="325" t="s">
+      <c r="A3" s="229"/>
+      <c r="B3" s="229"/>
+      <c r="C3" s="229"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="229"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="229"/>
+      <c r="L3" s="229"/>
+      <c r="M3" s="229"/>
+      <c r="N3" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="104"/>
+      <c r="O3" s="329"/>
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" ht="23.25" customHeight="1">
       <c r="A4" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="192">
+      <c r="B4" s="230">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="193"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="195" t="s">
+      <c r="C4" s="231"/>
+      <c r="D4" s="232"/>
+      <c r="E4" s="233" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="196"/>
-      <c r="G4" s="192">
+      <c r="F4" s="234"/>
+      <c r="G4" s="230">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="194"/>
+      <c r="H4" s="232"/>
       <c r="I4" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="197">
+      <c r="J4" s="235">
         <f>Page1!K4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="197"/>
-      <c r="L4" s="199" t="s">
+      <c r="K4" s="235"/>
+      <c r="L4" s="237" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="199"/>
-      <c r="N4" s="192">
+      <c r="M4" s="237"/>
+      <c r="N4" s="230">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="198"/>
+      <c r="O4" s="236"/>
     </row>
     <row r="5" spans="1:15" s="2" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="189">
+      <c r="B5" s="191">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="236"/>
-      <c r="D5" s="190"/>
-      <c r="E5" s="237" t="s">
+      <c r="C5" s="194"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="196" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="238"/>
-      <c r="G5" s="189">
+      <c r="F5" s="197"/>
+      <c r="G5" s="191">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="190"/>
+      <c r="H5" s="195"/>
       <c r="I5" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="200">
+      <c r="J5" s="238">
         <f>Page1!K5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="200"/>
-      <c r="L5" s="235" t="s">
+      <c r="K5" s="238"/>
+      <c r="L5" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="235"/>
-      <c r="N5" s="189">
+      <c r="M5" s="193"/>
+      <c r="N5" s="191">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="234"/>
+      <c r="O5" s="192"/>
     </row>
     <row r="6" spans="1:15" s="3" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A6" s="231" t="s">
+      <c r="A6" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="232"/>
-      <c r="C6" s="232"/>
-      <c r="D6" s="232"/>
-      <c r="E6" s="232"/>
-      <c r="F6" s="232"/>
-      <c r="G6" s="232"/>
-      <c r="H6" s="232"/>
-      <c r="I6" s="232"/>
-      <c r="J6" s="232"/>
-      <c r="K6" s="232"/>
-      <c r="L6" s="232"/>
-      <c r="M6" s="232"/>
-      <c r="N6" s="232"/>
-      <c r="O6" s="233"/>
+      <c r="B6" s="189"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="189"/>
+      <c r="E6" s="189"/>
+      <c r="F6" s="189"/>
+      <c r="G6" s="189"/>
+      <c r="H6" s="189"/>
+      <c r="I6" s="189"/>
+      <c r="J6" s="189"/>
+      <c r="K6" s="189"/>
+      <c r="L6" s="189"/>
+      <c r="M6" s="189"/>
+      <c r="N6" s="189"/>
+      <c r="O6" s="190"/>
     </row>
     <row r="7" spans="1:15" s="3" customFormat="1" ht="15">
-      <c r="A7" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="202"/>
-      <c r="C7" s="203"/>
-      <c r="D7" s="227" t="s">
+      <c r="A7" s="239" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="240"/>
+      <c r="C7" s="241"/>
+      <c r="D7" s="184" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="227"/>
-      <c r="F7" s="227"/>
-      <c r="G7" s="227"/>
-      <c r="H7" s="228" t="s">
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="185" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="229"/>
-      <c r="J7" s="229"/>
-      <c r="K7" s="230"/>
-      <c r="L7" s="239" t="s">
+      <c r="I7" s="186"/>
+      <c r="J7" s="186"/>
+      <c r="K7" s="187"/>
+      <c r="L7" s="198" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="240"/>
-      <c r="N7" s="240"/>
-      <c r="O7" s="241"/>
+      <c r="M7" s="199"/>
+      <c r="N7" s="199"/>
+      <c r="O7" s="200"/>
     </row>
     <row r="8" spans="1:15" s="3" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A8" s="204"/>
-      <c r="B8" s="205"/>
-      <c r="C8" s="206"/>
+      <c r="A8" s="242"/>
+      <c r="B8" s="243"/>
+      <c r="C8" s="244"/>
       <c r="D8" s="18">
         <v>1</v>
       </c>
@@ -5044,27 +5044,27 @@
       <c r="C39" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="182" t="e">
+      <c r="D39" s="221" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="183"/>
-      <c r="F39" s="183"/>
-      <c r="G39" s="184"/>
-      <c r="H39" s="185" t="e">
+      <c r="E39" s="222"/>
+      <c r="F39" s="222"/>
+      <c r="G39" s="223"/>
+      <c r="H39" s="224" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="186"/>
-      <c r="J39" s="186"/>
-      <c r="K39" s="187"/>
-      <c r="L39" s="185" t="e">
+      <c r="I39" s="225"/>
+      <c r="J39" s="225"/>
+      <c r="K39" s="226"/>
+      <c r="L39" s="224" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="186"/>
-      <c r="N39" s="186"/>
-      <c r="O39" s="188"/>
+      <c r="M39" s="225"/>
+      <c r="N39" s="225"/>
+      <c r="O39" s="227"/>
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1">
       <c r="A40" s="24"/>
@@ -5072,27 +5072,27 @@
       <c r="C40" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="210" t="e">
+      <c r="D40" s="204" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="211"/>
-      <c r="F40" s="211"/>
-      <c r="G40" s="212"/>
-      <c r="H40" s="213" t="e">
+      <c r="E40" s="205"/>
+      <c r="F40" s="205"/>
+      <c r="G40" s="206"/>
+      <c r="H40" s="207" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="214"/>
-      <c r="J40" s="214"/>
-      <c r="K40" s="215"/>
-      <c r="L40" s="213" t="e">
+      <c r="I40" s="208"/>
+      <c r="J40" s="208"/>
+      <c r="K40" s="209"/>
+      <c r="L40" s="207" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="214"/>
-      <c r="N40" s="214"/>
-      <c r="O40" s="216"/>
+      <c r="M40" s="208"/>
+      <c r="N40" s="208"/>
+      <c r="O40" s="210"/>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="26"/>
@@ -5100,58 +5100,58 @@
       <c r="C41" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="217" t="e">
+      <c r="D41" s="211" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="218"/>
-      <c r="F41" s="218"/>
-      <c r="G41" s="219"/>
-      <c r="H41" s="220" t="e">
+      <c r="E41" s="212"/>
+      <c r="F41" s="212"/>
+      <c r="G41" s="213"/>
+      <c r="H41" s="214" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="221"/>
-      <c r="J41" s="221"/>
-      <c r="K41" s="222"/>
-      <c r="L41" s="220" t="e">
+      <c r="I41" s="215"/>
+      <c r="J41" s="215"/>
+      <c r="K41" s="216"/>
+      <c r="L41" s="214" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="221"/>
-      <c r="N41" s="221"/>
-      <c r="O41" s="223"/>
+      <c r="M41" s="215"/>
+      <c r="N41" s="215"/>
+      <c r="O41" s="217"/>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1">
       <c r="A42" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="225"/>
-      <c r="C42" s="225"/>
-      <c r="D42" s="226" t="s">
+      <c r="B42" s="219"/>
+      <c r="C42" s="219"/>
+      <c r="D42" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="226"/>
-      <c r="F42" s="226"/>
-      <c r="G42" s="226"/>
+      <c r="E42" s="220"/>
+      <c r="F42" s="220"/>
+      <c r="G42" s="220"/>
       <c r="H42" s="29"/>
       <c r="I42" s="29"/>
       <c r="J42" s="29"/>
-      <c r="K42" s="208" t="s">
+      <c r="K42" s="202" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="208"/>
-      <c r="M42" s="226"/>
-      <c r="N42" s="226"/>
+      <c r="L42" s="202"/>
+      <c r="M42" s="220"/>
+      <c r="N42" s="220"/>
       <c r="O42" s="30" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A43" s="207" t="s">
+      <c r="A43" s="201" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="207"/>
+      <c r="B43" s="201"/>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
       <c r="E43" s="1"/>
@@ -5160,23 +5160,23 @@
         <f>Page1!G42</f>
         <v>Reference:</v>
       </c>
-      <c r="H43" s="224" t="str">
+      <c r="H43" s="218" t="str">
         <f>Page1!H42</f>
         <v>MRMP: 00004833.002 GCAS:21088174.001</v>
       </c>
-      <c r="I43" s="224"/>
-      <c r="J43" s="224"/>
-      <c r="K43" s="224"/>
+      <c r="I43" s="218"/>
+      <c r="J43" s="218"/>
+      <c r="K43" s="218"/>
       <c r="L43" s="1"/>
       <c r="M43" s="29"/>
       <c r="N43" s="29"/>
       <c r="O43" s="29"/>
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A44" s="207" t="s">
+      <c r="A44" s="201" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="207"/>
+      <c r="B44" s="201"/>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
       <c r="E44" s="29"/>
@@ -5188,36 +5188,13 @@
       <c r="K44" s="29"/>
       <c r="L44" s="29"/>
       <c r="M44" s="29"/>
-      <c r="N44" s="209" t="s">
+      <c r="N44" s="203" t="s">
         <v>39</v>
       </c>
-      <c r="O44" s="209"/>
+      <c r="O44" s="203"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="M42:N42"/>
     <mergeCell ref="D39:G39"/>
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:O39"/>
@@ -5234,6 +5211,29 @@
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="A7:C8"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="L7:O7"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
@@ -5270,7 +5270,7 @@
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5281,188 +5281,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="329" t="s">
+      <c r="A1" s="262" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="329"/>
-      <c r="C1" s="329"/>
-      <c r="D1" s="329"/>
-      <c r="E1" s="329"/>
-      <c r="F1" s="329"/>
-      <c r="G1" s="329"/>
-      <c r="H1" s="329"/>
-      <c r="I1" s="329"/>
-      <c r="J1" s="329"/>
-      <c r="K1" s="329"/>
-      <c r="L1" s="329"/>
-      <c r="M1" s="329"/>
-      <c r="N1" s="326" t="s">
+      <c r="B1" s="262"/>
+      <c r="C1" s="262"/>
+      <c r="D1" s="262"/>
+      <c r="E1" s="262"/>
+      <c r="F1" s="262"/>
+      <c r="G1" s="262"/>
+      <c r="H1" s="262"/>
+      <c r="I1" s="262"/>
+      <c r="J1" s="262"/>
+      <c r="K1" s="262"/>
+      <c r="L1" s="262"/>
+      <c r="M1" s="262"/>
+      <c r="N1" s="169" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="326"/>
+      <c r="O1" s="169"/>
     </row>
     <row r="2" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="263" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
-      <c r="G2" s="243"/>
-      <c r="H2" s="243"/>
-      <c r="I2" s="243"/>
-      <c r="J2" s="243"/>
-      <c r="K2" s="243"/>
-      <c r="L2" s="243"/>
-      <c r="M2" s="243"/>
-      <c r="N2" s="327" t="s">
+      <c r="B2" s="263"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="263"/>
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="263"/>
+      <c r="I2" s="263"/>
+      <c r="J2" s="263"/>
+      <c r="K2" s="263"/>
+      <c r="L2" s="263"/>
+      <c r="M2" s="263"/>
+      <c r="N2" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="327"/>
+      <c r="O2" s="170"/>
     </row>
     <row r="3" spans="1:15" s="42" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="243"/>
-      <c r="B3" s="243"/>
-      <c r="C3" s="243"/>
-      <c r="D3" s="243"/>
-      <c r="E3" s="243"/>
-      <c r="F3" s="243"/>
-      <c r="G3" s="243"/>
-      <c r="H3" s="243"/>
-      <c r="I3" s="243"/>
-      <c r="J3" s="243"/>
-      <c r="K3" s="243"/>
-      <c r="L3" s="243"/>
-      <c r="M3" s="243"/>
-      <c r="N3" s="325" t="s">
+      <c r="A3" s="263"/>
+      <c r="B3" s="263"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="263"/>
+      <c r="E3" s="263"/>
+      <c r="F3" s="263"/>
+      <c r="G3" s="263"/>
+      <c r="H3" s="263"/>
+      <c r="I3" s="263"/>
+      <c r="J3" s="263"/>
+      <c r="K3" s="263"/>
+      <c r="L3" s="263"/>
+      <c r="M3" s="263"/>
+      <c r="N3" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="104"/>
+      <c r="O3" s="329"/>
     </row>
     <row r="4" spans="1:15" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="A4" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="192">
+      <c r="B4" s="230">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="193"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="195" t="s">
+      <c r="C4" s="231"/>
+      <c r="D4" s="232"/>
+      <c r="E4" s="233" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="196"/>
-      <c r="G4" s="192">
+      <c r="F4" s="234"/>
+      <c r="G4" s="230">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="194"/>
+      <c r="H4" s="232"/>
       <c r="I4" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="197">
+      <c r="J4" s="235">
         <f>Page1!K4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="197"/>
-      <c r="L4" s="199" t="s">
+      <c r="K4" s="235"/>
+      <c r="L4" s="237" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="199"/>
-      <c r="N4" s="192">
+      <c r="M4" s="237"/>
+      <c r="N4" s="230">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="198"/>
+      <c r="O4" s="236"/>
     </row>
     <row r="5" spans="1:15" s="9" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="189">
+      <c r="B5" s="191">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="236"/>
-      <c r="D5" s="190"/>
-      <c r="E5" s="237" t="s">
+      <c r="C5" s="194"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="196" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="238"/>
-      <c r="G5" s="189">
+      <c r="F5" s="197"/>
+      <c r="G5" s="191">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="190"/>
+      <c r="H5" s="195"/>
       <c r="I5" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="200">
+      <c r="J5" s="238">
         <f>Page1!K5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="200"/>
-      <c r="L5" s="235" t="s">
+      <c r="K5" s="238"/>
+      <c r="L5" s="193" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="235"/>
-      <c r="N5" s="189">
+      <c r="M5" s="193"/>
+      <c r="N5" s="191">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="234"/>
+      <c r="O5" s="192"/>
     </row>
     <row r="6" spans="1:15" s="43" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A6" s="244" t="s">
+      <c r="A6" s="264" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="245"/>
-      <c r="C6" s="245"/>
-      <c r="D6" s="245"/>
-      <c r="E6" s="245"/>
-      <c r="F6" s="245"/>
-      <c r="G6" s="245"/>
-      <c r="H6" s="245"/>
-      <c r="I6" s="245"/>
-      <c r="J6" s="245"/>
-      <c r="K6" s="245"/>
-      <c r="L6" s="245"/>
-      <c r="M6" s="245"/>
-      <c r="N6" s="245"/>
-      <c r="O6" s="246"/>
+      <c r="B6" s="265"/>
+      <c r="C6" s="265"/>
+      <c r="D6" s="265"/>
+      <c r="E6" s="265"/>
+      <c r="F6" s="265"/>
+      <c r="G6" s="265"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="265"/>
+      <c r="J6" s="265"/>
+      <c r="K6" s="265"/>
+      <c r="L6" s="265"/>
+      <c r="M6" s="265"/>
+      <c r="N6" s="265"/>
+      <c r="O6" s="266"/>
     </row>
     <row r="7" spans="1:15" s="43" customFormat="1" ht="15">
-      <c r="A7" s="247" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="242"/>
-      <c r="C7" s="248"/>
-      <c r="D7" s="252" t="s">
+      <c r="A7" s="267" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="268"/>
+      <c r="C7" s="269"/>
+      <c r="D7" s="273" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="252"/>
-      <c r="F7" s="252"/>
-      <c r="G7" s="252"/>
-      <c r="H7" s="253" t="s">
+      <c r="E7" s="273"/>
+      <c r="F7" s="273"/>
+      <c r="G7" s="273"/>
+      <c r="H7" s="274" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="254"/>
-      <c r="J7" s="254"/>
-      <c r="K7" s="255"/>
-      <c r="L7" s="256" t="s">
+      <c r="I7" s="275"/>
+      <c r="J7" s="275"/>
+      <c r="K7" s="276"/>
+      <c r="L7" s="277" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="257"/>
-      <c r="N7" s="257"/>
-      <c r="O7" s="258"/>
+      <c r="M7" s="278"/>
+      <c r="N7" s="278"/>
+      <c r="O7" s="279"/>
     </row>
     <row r="8" spans="1:15" s="43" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A8" s="249"/>
-      <c r="B8" s="250"/>
-      <c r="C8" s="251"/>
+      <c r="A8" s="270"/>
+      <c r="B8" s="271"/>
+      <c r="C8" s="272"/>
       <c r="D8" s="44">
         <v>1</v>
       </c>
@@ -6556,27 +6556,27 @@
       <c r="C39" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="266" t="e">
+      <c r="D39" s="248" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="267"/>
-      <c r="F39" s="267"/>
-      <c r="G39" s="268"/>
-      <c r="H39" s="269" t="e">
+      <c r="E39" s="249"/>
+      <c r="F39" s="249"/>
+      <c r="G39" s="250"/>
+      <c r="H39" s="251" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="270"/>
-      <c r="J39" s="270"/>
-      <c r="K39" s="271"/>
-      <c r="L39" s="269" t="e">
+      <c r="I39" s="252"/>
+      <c r="J39" s="252"/>
+      <c r="K39" s="253"/>
+      <c r="L39" s="251" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="270"/>
-      <c r="N39" s="270"/>
-      <c r="O39" s="272"/>
+      <c r="M39" s="252"/>
+      <c r="N39" s="252"/>
+      <c r="O39" s="254"/>
     </row>
     <row r="40" spans="1:15" s="54" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="55"/>
@@ -6584,27 +6584,27 @@
       <c r="C40" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="273" t="e">
+      <c r="D40" s="255" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="274"/>
-      <c r="F40" s="274"/>
-      <c r="G40" s="275"/>
-      <c r="H40" s="276" t="e">
+      <c r="E40" s="256"/>
+      <c r="F40" s="256"/>
+      <c r="G40" s="257"/>
+      <c r="H40" s="258" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="277"/>
-      <c r="J40" s="277"/>
-      <c r="K40" s="278"/>
-      <c r="L40" s="276" t="e">
+      <c r="I40" s="259"/>
+      <c r="J40" s="259"/>
+      <c r="K40" s="260"/>
+      <c r="L40" s="258" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="277"/>
-      <c r="N40" s="277"/>
-      <c r="O40" s="279"/>
+      <c r="M40" s="259"/>
+      <c r="N40" s="259"/>
+      <c r="O40" s="261"/>
     </row>
     <row r="41" spans="1:15" s="54" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="57"/>
@@ -6612,58 +6612,58 @@
       <c r="C41" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="259" t="e">
+      <c r="D41" s="280" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="260"/>
-      <c r="F41" s="260"/>
-      <c r="G41" s="261"/>
-      <c r="H41" s="262" t="e">
+      <c r="E41" s="281"/>
+      <c r="F41" s="281"/>
+      <c r="G41" s="282"/>
+      <c r="H41" s="245" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="263"/>
-      <c r="J41" s="263"/>
-      <c r="K41" s="264"/>
-      <c r="L41" s="262" t="e">
+      <c r="I41" s="246"/>
+      <c r="J41" s="246"/>
+      <c r="K41" s="283"/>
+      <c r="L41" s="245" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="263"/>
-      <c r="N41" s="263"/>
-      <c r="O41" s="265"/>
+      <c r="M41" s="246"/>
+      <c r="N41" s="246"/>
+      <c r="O41" s="247"/>
     </row>
     <row r="42" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A42" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="225"/>
-      <c r="C42" s="225"/>
-      <c r="D42" s="226" t="s">
+      <c r="B42" s="219"/>
+      <c r="C42" s="219"/>
+      <c r="D42" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="226"/>
-      <c r="F42" s="226"/>
-      <c r="G42" s="226"/>
+      <c r="E42" s="220"/>
+      <c r="F42" s="220"/>
+      <c r="G42" s="220"/>
       <c r="H42" s="29"/>
       <c r="I42" s="29"/>
       <c r="J42" s="29"/>
-      <c r="K42" s="208" t="s">
+      <c r="K42" s="202" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="208"/>
-      <c r="M42" s="226"/>
-      <c r="N42" s="226"/>
+      <c r="L42" s="202"/>
+      <c r="M42" s="220"/>
+      <c r="N42" s="220"/>
       <c r="O42" s="31" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A43" s="207" t="s">
+      <c r="A43" s="201" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="207"/>
+      <c r="B43" s="201"/>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
       <c r="E43" s="1"/>
@@ -6672,12 +6672,12 @@
         <f>Page1!G42</f>
         <v>Reference:</v>
       </c>
-      <c r="H43" s="224" t="str">
+      <c r="H43" s="218" t="str">
         <f>Page1!H42</f>
         <v>MRMP: 00004833.002 GCAS:21088174.001</v>
       </c>
-      <c r="I43" s="224"/>
-      <c r="J43" s="224"/>
+      <c r="I43" s="218"/>
+      <c r="J43" s="218"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="29"/>
@@ -6685,10 +6685,10 @@
       <c r="O43" s="29"/>
     </row>
     <row r="44" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="207" t="s">
+      <c r="A44" s="201" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="207"/>
+      <c r="B44" s="201"/>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
       <c r="E44" s="29"/>
@@ -6700,20 +6700,29 @@
       <c r="K44" s="29"/>
       <c r="L44" s="29"/>
       <c r="M44" s="29"/>
-      <c r="N44" s="209" t="s">
+      <c r="N44" s="203" t="s">
         <v>43</v>
       </c>
-      <c r="O44" s="209"/>
+      <c r="O44" s="203"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="K42:L42"/>
     <mergeCell ref="N44:O44"/>
@@ -6730,22 +6739,13 @@
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="H43:J43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:O40"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
@@ -6782,7 +6782,7 @@
   <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -6793,175 +6793,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="329" t="s">
+      <c r="A1" s="262" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="329"/>
-      <c r="C1" s="329"/>
-      <c r="D1" s="329"/>
-      <c r="E1" s="329"/>
-      <c r="F1" s="329"/>
-      <c r="G1" s="329"/>
-      <c r="H1" s="329"/>
-      <c r="I1" s="329"/>
-      <c r="J1" s="329"/>
-      <c r="K1" s="329"/>
-      <c r="L1" s="329"/>
-      <c r="M1" s="329"/>
-      <c r="N1" s="326" t="s">
+      <c r="B1" s="262"/>
+      <c r="C1" s="262"/>
+      <c r="D1" s="262"/>
+      <c r="E1" s="262"/>
+      <c r="F1" s="262"/>
+      <c r="G1" s="262"/>
+      <c r="H1" s="262"/>
+      <c r="I1" s="262"/>
+      <c r="J1" s="262"/>
+      <c r="K1" s="262"/>
+      <c r="L1" s="262"/>
+      <c r="M1" s="262"/>
+      <c r="N1" s="169" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="326"/>
+      <c r="O1" s="169"/>
     </row>
     <row r="2" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="263" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="243"/>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
-      <c r="G2" s="243"/>
-      <c r="H2" s="243"/>
-      <c r="I2" s="243"/>
-      <c r="J2" s="243"/>
-      <c r="K2" s="243"/>
-      <c r="L2" s="243"/>
-      <c r="M2" s="243"/>
-      <c r="N2" s="327" t="s">
+      <c r="B2" s="263"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="263"/>
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="263"/>
+      <c r="I2" s="263"/>
+      <c r="J2" s="263"/>
+      <c r="K2" s="263"/>
+      <c r="L2" s="263"/>
+      <c r="M2" s="263"/>
+      <c r="N2" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="327"/>
+      <c r="O2" s="170"/>
     </row>
     <row r="3" spans="1:15" s="42" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="243"/>
-      <c r="B3" s="243"/>
-      <c r="C3" s="243"/>
-      <c r="D3" s="243"/>
-      <c r="E3" s="243"/>
-      <c r="F3" s="243"/>
-      <c r="G3" s="243"/>
-      <c r="H3" s="243"/>
-      <c r="I3" s="243"/>
-      <c r="J3" s="243"/>
-      <c r="K3" s="243"/>
-      <c r="L3" s="243"/>
-      <c r="M3" s="243"/>
-      <c r="N3" s="325" t="s">
+      <c r="A3" s="263"/>
+      <c r="B3" s="263"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="263"/>
+      <c r="E3" s="263"/>
+      <c r="F3" s="263"/>
+      <c r="G3" s="263"/>
+      <c r="H3" s="263"/>
+      <c r="I3" s="263"/>
+      <c r="J3" s="263"/>
+      <c r="K3" s="263"/>
+      <c r="L3" s="263"/>
+      <c r="M3" s="263"/>
+      <c r="N3" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="104"/>
+      <c r="O3" s="329"/>
     </row>
     <row r="4" spans="1:15" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="A4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="287">
+      <c r="B4" s="317">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="288"/>
-      <c r="D4" s="289"/>
-      <c r="E4" s="290" t="s">
+      <c r="C4" s="318"/>
+      <c r="D4" s="319"/>
+      <c r="E4" s="320" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="291"/>
-      <c r="G4" s="287">
+      <c r="F4" s="321"/>
+      <c r="G4" s="317">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="289"/>
+      <c r="H4" s="319"/>
       <c r="I4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="292">
+      <c r="J4" s="322">
         <f>Page1!K4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="292"/>
-      <c r="L4" s="293" t="s">
+      <c r="K4" s="322"/>
+      <c r="L4" s="323" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="293"/>
-      <c r="N4" s="294">
+      <c r="M4" s="323"/>
+      <c r="N4" s="324">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="295"/>
+      <c r="O4" s="325"/>
     </row>
     <row r="5" spans="1:15" s="9" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="296">
+      <c r="B5" s="298">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="297"/>
-      <c r="D5" s="298"/>
-      <c r="E5" s="299" t="s">
+      <c r="C5" s="326"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="327" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="300"/>
-      <c r="G5" s="296">
+      <c r="F5" s="328"/>
+      <c r="G5" s="298">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="298"/>
+      <c r="H5" s="299"/>
       <c r="I5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="301">
+      <c r="J5" s="300">
         <f>Page1!K5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="301"/>
-      <c r="L5" s="302" t="s">
+      <c r="K5" s="300"/>
+      <c r="L5" s="301" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="302"/>
-      <c r="N5" s="303">
+      <c r="M5" s="301"/>
+      <c r="N5" s="302">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="304"/>
+      <c r="O5" s="303"/>
     </row>
     <row r="6" spans="1:15" s="43" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A6" s="280" t="s">
+      <c r="A6" s="312" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="281"/>
-      <c r="C6" s="281"/>
-      <c r="D6" s="282"/>
-      <c r="E6" s="282"/>
-      <c r="F6" s="282"/>
-      <c r="G6" s="283"/>
-      <c r="H6" s="284"/>
-      <c r="I6" s="282"/>
-      <c r="J6" s="282"/>
-      <c r="K6" s="282"/>
-      <c r="L6" s="282"/>
-      <c r="M6" s="282"/>
-      <c r="N6" s="282"/>
-      <c r="O6" s="283"/>
+      <c r="B6" s="313"/>
+      <c r="C6" s="313"/>
+      <c r="D6" s="314"/>
+      <c r="E6" s="314"/>
+      <c r="F6" s="314"/>
+      <c r="G6" s="315"/>
+      <c r="H6" s="316"/>
+      <c r="I6" s="314"/>
+      <c r="J6" s="314"/>
+      <c r="K6" s="314"/>
+      <c r="L6" s="314"/>
+      <c r="M6" s="314"/>
+      <c r="N6" s="314"/>
+      <c r="O6" s="315"/>
     </row>
     <row r="7" spans="1:15" s="54" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A7" s="305" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="306"/>
-      <c r="C7" s="306"/>
-      <c r="D7" s="307" t="s">
+      <c r="A7" s="304" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="305"/>
+      <c r="C7" s="305"/>
+      <c r="D7" s="306" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="307"/>
-      <c r="F7" s="307"/>
-      <c r="G7" s="307"/>
-      <c r="H7" s="308" t="s">
+      <c r="E7" s="306"/>
+      <c r="F7" s="306"/>
+      <c r="G7" s="306"/>
+      <c r="H7" s="307" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="309"/>
+      <c r="I7" s="308"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -6970,9 +6970,9 @@
       <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:15" s="54" customFormat="1" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A8" s="244"/>
-      <c r="B8" s="245"/>
-      <c r="C8" s="245"/>
+      <c r="A8" s="264"/>
+      <c r="B8" s="265"/>
+      <c r="C8" s="265"/>
       <c r="D8" s="7">
         <v>1</v>
       </c>
@@ -6985,8 +6985,8 @@
       <c r="G8" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="204"/>
-      <c r="I8" s="310"/>
+      <c r="H8" s="242"/>
+      <c r="I8" s="309"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -7014,10 +7014,10 @@
         <f t="shared" ref="G9:G38" si="0">AVERAGE(D9:F9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="311">
-        <v>0</v>
-      </c>
-      <c r="I9" s="312"/>
+      <c r="H9" s="310">
+        <v>0</v>
+      </c>
+      <c r="I9" s="311"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -7045,10 +7045,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="285">
-        <v>0</v>
-      </c>
-      <c r="I10" s="286"/>
+      <c r="H10" s="290">
+        <v>0</v>
+      </c>
+      <c r="I10" s="291"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
@@ -7076,10 +7076,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="285">
-        <v>0</v>
-      </c>
-      <c r="I11" s="286"/>
+      <c r="H11" s="290">
+        <v>0</v>
+      </c>
+      <c r="I11" s="291"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
@@ -7107,10 +7107,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="285">
-        <v>0</v>
-      </c>
-      <c r="I12" s="286"/>
+      <c r="H12" s="290">
+        <v>0</v>
+      </c>
+      <c r="I12" s="291"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
@@ -7138,10 +7138,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="285">
-        <v>0</v>
-      </c>
-      <c r="I13" s="286"/>
+      <c r="H13" s="290">
+        <v>0</v>
+      </c>
+      <c r="I13" s="291"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -7169,10 +7169,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="285">
-        <v>0</v>
-      </c>
-      <c r="I14" s="286"/>
+      <c r="H14" s="290">
+        <v>0</v>
+      </c>
+      <c r="I14" s="291"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -7200,10 +7200,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="285">
-        <v>0</v>
-      </c>
-      <c r="I15" s="286"/>
+      <c r="H15" s="290">
+        <v>0</v>
+      </c>
+      <c r="I15" s="291"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
@@ -7231,10 +7231,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="285">
-        <v>0</v>
-      </c>
-      <c r="I16" s="286"/>
+      <c r="H16" s="290">
+        <v>0</v>
+      </c>
+      <c r="I16" s="291"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -7262,10 +7262,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="285">
-        <v>0</v>
-      </c>
-      <c r="I17" s="286"/>
+      <c r="H17" s="290">
+        <v>0</v>
+      </c>
+      <c r="I17" s="291"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -7293,10 +7293,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="285">
-        <v>0</v>
-      </c>
-      <c r="I18" s="286"/>
+      <c r="H18" s="290">
+        <v>0</v>
+      </c>
+      <c r="I18" s="291"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
@@ -7324,10 +7324,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="285">
-        <v>0</v>
-      </c>
-      <c r="I19" s="286"/>
+      <c r="H19" s="290">
+        <v>0</v>
+      </c>
+      <c r="I19" s="291"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
@@ -7355,10 +7355,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="285">
-        <v>0</v>
-      </c>
-      <c r="I20" s="286"/>
+      <c r="H20" s="290">
+        <v>0</v>
+      </c>
+      <c r="I20" s="291"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
@@ -7386,10 +7386,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="285">
-        <v>0</v>
-      </c>
-      <c r="I21" s="286"/>
+      <c r="H21" s="290">
+        <v>0</v>
+      </c>
+      <c r="I21" s="291"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
@@ -7417,10 +7417,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="285">
-        <v>0</v>
-      </c>
-      <c r="I22" s="286"/>
+      <c r="H22" s="290">
+        <v>0</v>
+      </c>
+      <c r="I22" s="291"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
@@ -7448,10 +7448,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="285">
-        <v>0</v>
-      </c>
-      <c r="I23" s="286"/>
+      <c r="H23" s="290">
+        <v>0</v>
+      </c>
+      <c r="I23" s="291"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
@@ -7479,10 +7479,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="285">
-        <v>0</v>
-      </c>
-      <c r="I24" s="286"/>
+      <c r="H24" s="290">
+        <v>0</v>
+      </c>
+      <c r="I24" s="291"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
@@ -7510,10 +7510,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="285">
-        <v>0</v>
-      </c>
-      <c r="I25" s="286"/>
+      <c r="H25" s="290">
+        <v>0</v>
+      </c>
+      <c r="I25" s="291"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
@@ -7541,10 +7541,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="285">
-        <v>0</v>
-      </c>
-      <c r="I26" s="286"/>
+      <c r="H26" s="290">
+        <v>0</v>
+      </c>
+      <c r="I26" s="291"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
@@ -7572,10 +7572,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="285">
-        <v>0</v>
-      </c>
-      <c r="I27" s="286"/>
+      <c r="H27" s="290">
+        <v>0</v>
+      </c>
+      <c r="I27" s="291"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
@@ -7603,10 +7603,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="285">
-        <v>0</v>
-      </c>
-      <c r="I28" s="286"/>
+      <c r="H28" s="290">
+        <v>0</v>
+      </c>
+      <c r="I28" s="291"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
@@ -7634,10 +7634,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="285">
-        <v>0</v>
-      </c>
-      <c r="I29" s="286"/>
+      <c r="H29" s="290">
+        <v>0</v>
+      </c>
+      <c r="I29" s="291"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
@@ -7665,10 +7665,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="285">
-        <v>0</v>
-      </c>
-      <c r="I30" s="286"/>
+      <c r="H30" s="290">
+        <v>0</v>
+      </c>
+      <c r="I30" s="291"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
@@ -7696,10 +7696,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="285">
-        <v>0</v>
-      </c>
-      <c r="I31" s="286"/>
+      <c r="H31" s="290">
+        <v>0</v>
+      </c>
+      <c r="I31" s="291"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
@@ -7727,10 +7727,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="285">
-        <v>0</v>
-      </c>
-      <c r="I32" s="286"/>
+      <c r="H32" s="290">
+        <v>0</v>
+      </c>
+      <c r="I32" s="291"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
@@ -7758,10 +7758,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="285">
-        <v>0</v>
-      </c>
-      <c r="I33" s="286"/>
+      <c r="H33" s="290">
+        <v>0</v>
+      </c>
+      <c r="I33" s="291"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
@@ -7789,10 +7789,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="285">
-        <v>0</v>
-      </c>
-      <c r="I34" s="286"/>
+      <c r="H34" s="290">
+        <v>0</v>
+      </c>
+      <c r="I34" s="291"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
@@ -7820,10 +7820,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="285">
-        <v>0</v>
-      </c>
-      <c r="I35" s="286"/>
+      <c r="H35" s="290">
+        <v>0</v>
+      </c>
+      <c r="I35" s="291"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
@@ -7851,10 +7851,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="285">
-        <v>0</v>
-      </c>
-      <c r="I36" s="286"/>
+      <c r="H36" s="290">
+        <v>0</v>
+      </c>
+      <c r="I36" s="291"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
@@ -7882,10 +7882,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="285">
-        <v>0</v>
-      </c>
-      <c r="I37" s="286"/>
+      <c r="H37" s="290">
+        <v>0</v>
+      </c>
+      <c r="I37" s="291"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
@@ -7913,10 +7913,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="313">
-        <v>0</v>
-      </c>
-      <c r="I38" s="314"/>
+      <c r="H38" s="292">
+        <v>0</v>
+      </c>
+      <c r="I38" s="293"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
@@ -7930,18 +7930,18 @@
       <c r="C39" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="269" t="e">
+      <c r="D39" s="251" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="270"/>
-      <c r="F39" s="270"/>
-      <c r="G39" s="272"/>
-      <c r="H39" s="315">
+      <c r="E39" s="252"/>
+      <c r="F39" s="252"/>
+      <c r="G39" s="254"/>
+      <c r="H39" s="294">
         <f>AVERAGE(H9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="316"/>
+      <c r="I39" s="295"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
@@ -7955,18 +7955,18 @@
       <c r="C40" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="276" t="e">
+      <c r="D40" s="258" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="277"/>
-      <c r="F40" s="277"/>
-      <c r="G40" s="279"/>
-      <c r="H40" s="317">
+      <c r="E40" s="259"/>
+      <c r="F40" s="259"/>
+      <c r="G40" s="261"/>
+      <c r="H40" s="296">
         <f>MIN(I9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="318"/>
+      <c r="I40" s="297"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
@@ -7980,18 +7980,18 @@
       <c r="C41" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="320" t="e">
+      <c r="D41" s="285" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="321"/>
-      <c r="F41" s="321"/>
-      <c r="G41" s="322"/>
-      <c r="H41" s="323">
+      <c r="E41" s="286"/>
+      <c r="F41" s="286"/>
+      <c r="G41" s="287"/>
+      <c r="H41" s="288">
         <f>MAX(I9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="324"/>
+      <c r="I41" s="289"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
       <c r="L41" s="11"/>
@@ -8003,32 +8003,32 @@
       <c r="A42" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="225"/>
-      <c r="C42" s="225"/>
-      <c r="D42" s="226" t="s">
+      <c r="B42" s="219"/>
+      <c r="C42" s="219"/>
+      <c r="D42" s="220" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="226"/>
-      <c r="F42" s="226"/>
-      <c r="G42" s="226"/>
+      <c r="E42" s="220"/>
+      <c r="F42" s="220"/>
+      <c r="G42" s="220"/>
       <c r="H42" s="29"/>
       <c r="I42" s="29"/>
       <c r="J42" s="29"/>
-      <c r="K42" s="208" t="s">
+      <c r="K42" s="202" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="208"/>
-      <c r="M42" s="226"/>
-      <c r="N42" s="226"/>
+      <c r="L42" s="202"/>
+      <c r="M42" s="220"/>
+      <c r="N42" s="220"/>
       <c r="O42" s="66" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A43" s="207" t="s">
+      <c r="A43" s="201" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="207"/>
+      <c r="B43" s="201"/>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
       <c r="E43" s="1"/>
@@ -8037,12 +8037,12 @@
         <f>Page1!G42</f>
         <v>Reference:</v>
       </c>
-      <c r="H43" s="224" t="str">
+      <c r="H43" s="218" t="str">
         <f>Page1!H42</f>
         <v>MRMP: 00004833.002 GCAS:21088174.001</v>
       </c>
-      <c r="I43" s="224"/>
-      <c r="J43" s="224"/>
+      <c r="I43" s="218"/>
+      <c r="J43" s="218"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="29"/>
@@ -8050,10 +8050,10 @@
       <c r="O43" s="29"/>
     </row>
     <row r="44" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="207" t="s">
+      <c r="A44" s="201" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="207"/>
+      <c r="B44" s="201"/>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
       <c r="E44" s="29"/>
@@ -8065,312 +8065,225 @@
       <c r="K44" s="29"/>
       <c r="L44" s="29"/>
       <c r="M44" s="29"/>
-      <c r="N44" s="209" t="s">
+      <c r="N44" s="203" t="s">
         <v>47</v>
       </c>
-      <c r="O44" s="209"/>
+      <c r="O44" s="203"/>
     </row>
     <row r="45" spans="1:15" s="54" customFormat="1"/>
     <row r="46" spans="1:15" s="54" customFormat="1"/>
     <row r="56" spans="4:15">
-      <c r="D56" s="319"/>
-      <c r="E56" s="319"/>
-      <c r="F56" s="319"/>
-      <c r="G56" s="319"/>
-      <c r="H56" s="319"/>
-      <c r="I56" s="319"/>
-      <c r="J56" s="319"/>
-      <c r="K56" s="319"/>
-      <c r="L56" s="319"/>
-      <c r="M56" s="319"/>
-      <c r="N56" s="319"/>
-      <c r="O56" s="319"/>
+      <c r="D56" s="284"/>
+      <c r="E56" s="284"/>
+      <c r="F56" s="284"/>
+      <c r="G56" s="284"/>
+      <c r="H56" s="284"/>
+      <c r="I56" s="284"/>
+      <c r="J56" s="284"/>
+      <c r="K56" s="284"/>
+      <c r="L56" s="284"/>
+      <c r="M56" s="284"/>
+      <c r="N56" s="284"/>
+      <c r="O56" s="284"/>
     </row>
     <row r="57" spans="4:15">
-      <c r="D57" s="319"/>
-      <c r="E57" s="319"/>
-      <c r="F57" s="319"/>
-      <c r="G57" s="319"/>
-      <c r="H57" s="319"/>
-      <c r="I57" s="319"/>
-      <c r="J57" s="319"/>
-      <c r="K57" s="319"/>
-      <c r="L57" s="319"/>
-      <c r="M57" s="319"/>
-      <c r="N57" s="319"/>
-      <c r="O57" s="319"/>
+      <c r="D57" s="284"/>
+      <c r="E57" s="284"/>
+      <c r="F57" s="284"/>
+      <c r="G57" s="284"/>
+      <c r="H57" s="284"/>
+      <c r="I57" s="284"/>
+      <c r="J57" s="284"/>
+      <c r="K57" s="284"/>
+      <c r="L57" s="284"/>
+      <c r="M57" s="284"/>
+      <c r="N57" s="284"/>
+      <c r="O57" s="284"/>
     </row>
     <row r="58" spans="4:15">
-      <c r="D58" s="319"/>
-      <c r="E58" s="319"/>
-      <c r="F58" s="319"/>
-      <c r="G58" s="319"/>
-      <c r="H58" s="319"/>
-      <c r="I58" s="319"/>
-      <c r="J58" s="319"/>
-      <c r="K58" s="319"/>
-      <c r="L58" s="319"/>
-      <c r="M58" s="319"/>
-      <c r="N58" s="319"/>
-      <c r="O58" s="319"/>
+      <c r="D58" s="284"/>
+      <c r="E58" s="284"/>
+      <c r="F58" s="284"/>
+      <c r="G58" s="284"/>
+      <c r="H58" s="284"/>
+      <c r="I58" s="284"/>
+      <c r="J58" s="284"/>
+      <c r="K58" s="284"/>
+      <c r="L58" s="284"/>
+      <c r="M58" s="284"/>
+      <c r="N58" s="284"/>
+      <c r="O58" s="284"/>
     </row>
     <row r="59" spans="4:15">
-      <c r="D59" s="319"/>
-      <c r="E59" s="319"/>
-      <c r="F59" s="319"/>
-      <c r="G59" s="319"/>
-      <c r="H59" s="319"/>
-      <c r="I59" s="319"/>
-      <c r="J59" s="319"/>
-      <c r="K59" s="319"/>
-      <c r="L59" s="319"/>
-      <c r="M59" s="319"/>
-      <c r="N59" s="319"/>
-      <c r="O59" s="319"/>
+      <c r="D59" s="284"/>
+      <c r="E59" s="284"/>
+      <c r="F59" s="284"/>
+      <c r="G59" s="284"/>
+      <c r="H59" s="284"/>
+      <c r="I59" s="284"/>
+      <c r="J59" s="284"/>
+      <c r="K59" s="284"/>
+      <c r="L59" s="284"/>
+      <c r="M59" s="284"/>
+      <c r="N59" s="284"/>
+      <c r="O59" s="284"/>
     </row>
     <row r="60" spans="4:15">
-      <c r="D60" s="319"/>
-      <c r="E60" s="319"/>
-      <c r="F60" s="319"/>
-      <c r="G60" s="319"/>
-      <c r="H60" s="319"/>
-      <c r="I60" s="319"/>
-      <c r="J60" s="319"/>
-      <c r="K60" s="319"/>
-      <c r="L60" s="319"/>
-      <c r="M60" s="319"/>
-      <c r="N60" s="319"/>
-      <c r="O60" s="319"/>
+      <c r="D60" s="284"/>
+      <c r="E60" s="284"/>
+      <c r="F60" s="284"/>
+      <c r="G60" s="284"/>
+      <c r="H60" s="284"/>
+      <c r="I60" s="284"/>
+      <c r="J60" s="284"/>
+      <c r="K60" s="284"/>
+      <c r="L60" s="284"/>
+      <c r="M60" s="284"/>
+      <c r="N60" s="284"/>
+      <c r="O60" s="284"/>
     </row>
     <row r="61" spans="4:15">
-      <c r="D61" s="319"/>
-      <c r="E61" s="319"/>
-      <c r="F61" s="319"/>
-      <c r="G61" s="319"/>
-      <c r="H61" s="319"/>
-      <c r="I61" s="319"/>
-      <c r="J61" s="319"/>
-      <c r="K61" s="319"/>
-      <c r="L61" s="319"/>
-      <c r="M61" s="319"/>
-      <c r="N61" s="319"/>
-      <c r="O61" s="319"/>
+      <c r="D61" s="284"/>
+      <c r="E61" s="284"/>
+      <c r="F61" s="284"/>
+      <c r="G61" s="284"/>
+      <c r="H61" s="284"/>
+      <c r="I61" s="284"/>
+      <c r="J61" s="284"/>
+      <c r="K61" s="284"/>
+      <c r="L61" s="284"/>
+      <c r="M61" s="284"/>
+      <c r="N61" s="284"/>
+      <c r="O61" s="284"/>
     </row>
     <row r="62" spans="4:15">
-      <c r="D62" s="319"/>
-      <c r="E62" s="319"/>
-      <c r="F62" s="319"/>
-      <c r="G62" s="319"/>
-      <c r="H62" s="319"/>
-      <c r="I62" s="319"/>
-      <c r="J62" s="319"/>
-      <c r="K62" s="319"/>
-      <c r="L62" s="319"/>
-      <c r="M62" s="319"/>
-      <c r="N62" s="319"/>
-      <c r="O62" s="319"/>
+      <c r="D62" s="284"/>
+      <c r="E62" s="284"/>
+      <c r="F62" s="284"/>
+      <c r="G62" s="284"/>
+      <c r="H62" s="284"/>
+      <c r="I62" s="284"/>
+      <c r="J62" s="284"/>
+      <c r="K62" s="284"/>
+      <c r="L62" s="284"/>
+      <c r="M62" s="284"/>
+      <c r="N62" s="284"/>
+      <c r="O62" s="284"/>
     </row>
     <row r="63" spans="4:15">
-      <c r="D63" s="319"/>
-      <c r="E63" s="319"/>
-      <c r="F63" s="319"/>
-      <c r="G63" s="319"/>
-      <c r="H63" s="319"/>
-      <c r="I63" s="319"/>
-      <c r="J63" s="319"/>
-      <c r="K63" s="319"/>
-      <c r="L63" s="319"/>
-      <c r="M63" s="319"/>
-      <c r="N63" s="319"/>
-      <c r="O63" s="319"/>
+      <c r="D63" s="284"/>
+      <c r="E63" s="284"/>
+      <c r="F63" s="284"/>
+      <c r="G63" s="284"/>
+      <c r="H63" s="284"/>
+      <c r="I63" s="284"/>
+      <c r="J63" s="284"/>
+      <c r="K63" s="284"/>
+      <c r="L63" s="284"/>
+      <c r="M63" s="284"/>
+      <c r="N63" s="284"/>
+      <c r="O63" s="284"/>
     </row>
     <row r="64" spans="4:15">
-      <c r="D64" s="319"/>
-      <c r="E64" s="319"/>
-      <c r="F64" s="319"/>
-      <c r="G64" s="319"/>
-      <c r="H64" s="319"/>
-      <c r="I64" s="319"/>
-      <c r="J64" s="319"/>
-      <c r="K64" s="319"/>
-      <c r="L64" s="319"/>
-      <c r="M64" s="319"/>
-      <c r="N64" s="319"/>
-      <c r="O64" s="319"/>
+      <c r="D64" s="284"/>
+      <c r="E64" s="284"/>
+      <c r="F64" s="284"/>
+      <c r="G64" s="284"/>
+      <c r="H64" s="284"/>
+      <c r="I64" s="284"/>
+      <c r="J64" s="284"/>
+      <c r="K64" s="284"/>
+      <c r="L64" s="284"/>
+      <c r="M64" s="284"/>
+      <c r="N64" s="284"/>
+      <c r="O64" s="284"/>
     </row>
     <row r="65" spans="4:15">
-      <c r="D65" s="319"/>
-      <c r="E65" s="319"/>
-      <c r="F65" s="319"/>
-      <c r="G65" s="319"/>
-      <c r="H65" s="319"/>
-      <c r="I65" s="319"/>
-      <c r="J65" s="319"/>
-      <c r="K65" s="319"/>
-      <c r="L65" s="319"/>
-      <c r="M65" s="319"/>
-      <c r="N65" s="319"/>
-      <c r="O65" s="319"/>
+      <c r="D65" s="284"/>
+      <c r="E65" s="284"/>
+      <c r="F65" s="284"/>
+      <c r="G65" s="284"/>
+      <c r="H65" s="284"/>
+      <c r="I65" s="284"/>
+      <c r="J65" s="284"/>
+      <c r="K65" s="284"/>
+      <c r="L65" s="284"/>
+      <c r="M65" s="284"/>
+      <c r="N65" s="284"/>
+      <c r="O65" s="284"/>
     </row>
     <row r="66" spans="4:15">
-      <c r="D66" s="319"/>
-      <c r="E66" s="319"/>
-      <c r="F66" s="319"/>
-      <c r="G66" s="319"/>
-      <c r="H66" s="319"/>
-      <c r="I66" s="319"/>
-      <c r="J66" s="319"/>
-      <c r="K66" s="319"/>
-      <c r="L66" s="319"/>
-      <c r="M66" s="319"/>
-      <c r="N66" s="319"/>
-      <c r="O66" s="319"/>
+      <c r="D66" s="284"/>
+      <c r="E66" s="284"/>
+      <c r="F66" s="284"/>
+      <c r="G66" s="284"/>
+      <c r="H66" s="284"/>
+      <c r="I66" s="284"/>
+      <c r="J66" s="284"/>
+      <c r="K66" s="284"/>
+      <c r="L66" s="284"/>
+      <c r="M66" s="284"/>
+      <c r="N66" s="284"/>
+      <c r="O66" s="284"/>
     </row>
     <row r="67" spans="4:15">
-      <c r="D67" s="319"/>
-      <c r="E67" s="319"/>
-      <c r="F67" s="319"/>
-      <c r="G67" s="319"/>
-      <c r="H67" s="319"/>
-      <c r="I67" s="319"/>
-      <c r="J67" s="319"/>
-      <c r="K67" s="319"/>
-      <c r="L67" s="319"/>
-      <c r="M67" s="319"/>
-      <c r="N67" s="319"/>
-      <c r="O67" s="319"/>
+      <c r="D67" s="284"/>
+      <c r="E67" s="284"/>
+      <c r="F67" s="284"/>
+      <c r="G67" s="284"/>
+      <c r="H67" s="284"/>
+      <c r="I67" s="284"/>
+      <c r="J67" s="284"/>
+      <c r="K67" s="284"/>
+      <c r="L67" s="284"/>
+      <c r="M67" s="284"/>
+      <c r="N67" s="284"/>
+      <c r="O67" s="284"/>
     </row>
     <row r="68" spans="4:15">
-      <c r="D68" s="319"/>
-      <c r="E68" s="319"/>
-      <c r="F68" s="319"/>
-      <c r="G68" s="319"/>
-      <c r="H68" s="319"/>
-      <c r="I68" s="319"/>
-      <c r="J68" s="319"/>
-      <c r="K68" s="319"/>
-      <c r="L68" s="319"/>
-      <c r="M68" s="319"/>
-      <c r="N68" s="319"/>
-      <c r="O68" s="319"/>
+      <c r="D68" s="284"/>
+      <c r="E68" s="284"/>
+      <c r="F68" s="284"/>
+      <c r="G68" s="284"/>
+      <c r="H68" s="284"/>
+      <c r="I68" s="284"/>
+      <c r="J68" s="284"/>
+      <c r="K68" s="284"/>
+      <c r="L68" s="284"/>
+      <c r="M68" s="284"/>
+      <c r="N68" s="284"/>
+      <c r="O68" s="284"/>
     </row>
     <row r="69" spans="4:15">
-      <c r="D69" s="319"/>
-      <c r="E69" s="319"/>
-      <c r="F69" s="319"/>
-      <c r="G69" s="319"/>
-      <c r="H69" s="319"/>
-      <c r="I69" s="319"/>
-      <c r="J69" s="319"/>
-      <c r="K69" s="319"/>
-      <c r="L69" s="319"/>
-      <c r="M69" s="319"/>
-      <c r="N69" s="319"/>
-      <c r="O69" s="319"/>
+      <c r="D69" s="284"/>
+      <c r="E69" s="284"/>
+      <c r="F69" s="284"/>
+      <c r="G69" s="284"/>
+      <c r="H69" s="284"/>
+      <c r="I69" s="284"/>
+      <c r="J69" s="284"/>
+      <c r="K69" s="284"/>
+      <c r="L69" s="284"/>
+      <c r="M69" s="284"/>
+      <c r="N69" s="284"/>
+      <c r="O69" s="284"/>
     </row>
     <row r="70" spans="4:15">
-      <c r="D70" s="319"/>
-      <c r="E70" s="319"/>
-      <c r="F70" s="319"/>
-      <c r="G70" s="319"/>
-      <c r="H70" s="319"/>
-      <c r="I70" s="319"/>
-      <c r="J70" s="319"/>
-      <c r="K70" s="319"/>
-      <c r="L70" s="319"/>
-      <c r="M70" s="319"/>
-      <c r="N70" s="319"/>
-      <c r="O70" s="319"/>
+      <c r="D70" s="284"/>
+      <c r="E70" s="284"/>
+      <c r="F70" s="284"/>
+      <c r="G70" s="284"/>
+      <c r="H70" s="284"/>
+      <c r="I70" s="284"/>
+      <c r="J70" s="284"/>
+      <c r="K70" s="284"/>
+      <c r="L70" s="284"/>
+      <c r="M70" s="284"/>
+      <c r="N70" s="284"/>
+      <c r="O70" s="284"/>
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="L69:O69"/>
-    <mergeCell ref="D70:G70"/>
-    <mergeCell ref="H70:K70"/>
-    <mergeCell ref="L70:O70"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="L67:O67"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="L68:O68"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="L65:O65"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="L66:O66"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="L63:O63"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="L64:O64"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="H59:K59"/>
-    <mergeCell ref="L59:O59"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="L57:O57"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="L58:O58"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="H56:K56"/>
-    <mergeCell ref="L56:O56"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:G42"/>
     <mergeCell ref="M42:N42"/>
@@ -8395,6 +8308,93 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:O57"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:O58"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:O56"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:O65"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:O63"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:O64"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:O69"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:O70"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:O68"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G38">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">

--- a/backend/templates/168_16cp_kranti.xlsx
+++ b/backend/templates/168_16cp_kranti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D246CED-F15A-4A56-9B9E-B8C81F72C43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAAEA94-E702-44F9-BAA6-48732BD9140D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="1" r:id="rId1"/>
@@ -1439,6 +1439,214 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1493,210 +1701,177 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="30" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1725,9 +1900,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1738,9 +1910,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1759,171 +1928,68 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1931,6 +1997,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1976,71 +2045,134 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2059,138 +2191,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2572,7 +2572,7 @@
   <dimension ref="A1:O78"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:E8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2584,161 +2584,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="169" t="s">
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="169"/>
+      <c r="O1" s="151"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="170" t="s">
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="170"/>
+      <c r="O2" s="152"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="150"/>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="150"/>
+      <c r="A3" s="132"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
       <c r="N3" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="329"/>
+      <c r="O3" s="107"/>
     </row>
     <row r="4" spans="1:15" s="29" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="159" t="s">
+      <c r="A4" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="160"/>
-      <c r="C4" s="151"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="160" t="s">
+      <c r="B4" s="142"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="160"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="153"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="135"/>
       <c r="J4" s="95" t="s">
         <v>5</v>
       </c>
       <c r="K4" s="96"/>
-      <c r="L4" s="167" t="s">
+      <c r="L4" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="168"/>
-      <c r="N4" s="157"/>
-      <c r="O4" s="158"/>
+      <c r="M4" s="150"/>
+      <c r="N4" s="139"/>
+      <c r="O4" s="140"/>
     </row>
     <row r="5" spans="1:15" s="29" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="161" t="s">
+      <c r="A5" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="162"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="162" t="s">
+      <c r="B5" s="144"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="138"/>
+      <c r="F5" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="162"/>
-      <c r="H5" s="155"/>
-      <c r="I5" s="156"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="138"/>
       <c r="J5" s="97" t="s">
         <v>6</v>
       </c>
       <c r="K5" s="98"/>
-      <c r="L5" s="165" t="s">
+      <c r="L5" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="166"/>
-      <c r="N5" s="163"/>
-      <c r="O5" s="164"/>
+      <c r="M5" s="148"/>
+      <c r="N5" s="145"/>
+      <c r="O5" s="146"/>
     </row>
     <row r="6" spans="1:15" thickBot="1">
-      <c r="A6" s="171" t="s">
+      <c r="A6" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="172"/>
-      <c r="C6" s="173"/>
-      <c r="D6" s="173"/>
-      <c r="E6" s="177"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="172"/>
-      <c r="H6" s="180"/>
-      <c r="I6" s="181"/>
-      <c r="J6" s="173"/>
-      <c r="K6" s="177"/>
-      <c r="L6" s="172"/>
-      <c r="M6" s="172"/>
-      <c r="N6" s="135"/>
-      <c r="O6" s="136"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="160"/>
+      <c r="O6" s="161"/>
     </row>
     <row r="7" spans="1:15" s="67" customFormat="1" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A7" s="174" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="175"/>
-      <c r="C7" s="176"/>
-      <c r="D7" s="175" t="s">
+      <c r="A7" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="122"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="175"/>
-      <c r="F7" s="179" t="s">
+      <c r="E7" s="122"/>
+      <c r="F7" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="179"/>
-      <c r="H7" s="182" t="s">
+      <c r="G7" s="126"/>
+      <c r="H7" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="183"/>
-      <c r="J7" s="176" t="s">
+      <c r="I7" s="130"/>
+      <c r="J7" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="178"/>
-      <c r="L7" s="175" t="s">
+      <c r="K7" s="125"/>
+      <c r="L7" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="175"/>
+      <c r="M7" s="122"/>
       <c r="N7" s="104" t="s">
         <v>30</v>
       </c>
@@ -2750,16 +2750,16 @@
       <c r="A8" s="90"/>
       <c r="B8" s="91"/>
       <c r="C8" s="91"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="130"/>
-      <c r="K8" s="130"/>
-      <c r="L8" s="134"/>
-      <c r="M8" s="134"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="112"/>
+      <c r="M8" s="112"/>
       <c r="N8" s="68"/>
       <c r="O8" s="69"/>
     </row>
@@ -2767,16 +2767,16 @@
       <c r="A9" s="90"/>
       <c r="B9" s="92"/>
       <c r="C9" s="91"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="127"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="129"/>
-      <c r="M9" s="129"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="113"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
       <c r="N9" s="70"/>
       <c r="O9" s="71"/>
     </row>
@@ -2784,16 +2784,16 @@
       <c r="A10" s="90"/>
       <c r="B10" s="92"/>
       <c r="C10" s="91"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="129"/>
-      <c r="M10" s="129"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
       <c r="N10" s="70"/>
       <c r="O10" s="71"/>
     </row>
@@ -2801,16 +2801,16 @@
       <c r="A11" s="90"/>
       <c r="B11" s="91"/>
       <c r="C11" s="91"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="130"/>
-      <c r="K11" s="130"/>
-      <c r="L11" s="134"/>
-      <c r="M11" s="134"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="112"/>
+      <c r="M11" s="112"/>
       <c r="N11" s="68"/>
       <c r="O11" s="69"/>
     </row>
@@ -2818,16 +2818,16 @@
       <c r="A12" s="90"/>
       <c r="B12" s="92"/>
       <c r="C12" s="91"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="125"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="129"/>
-      <c r="M12" s="129"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="117"/>
       <c r="N12" s="70"/>
       <c r="O12" s="71"/>
     </row>
@@ -2835,16 +2835,16 @@
       <c r="A13" s="90"/>
       <c r="B13" s="92"/>
       <c r="C13" s="91"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="125"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="129"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
       <c r="N13" s="70"/>
       <c r="O13" s="71"/>
     </row>
@@ -2852,16 +2852,16 @@
       <c r="A14" s="90"/>
       <c r="B14" s="92"/>
       <c r="C14" s="91"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="129"/>
-      <c r="M14" s="129"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="117"/>
       <c r="N14" s="70"/>
       <c r="O14" s="71"/>
     </row>
@@ -2869,16 +2869,16 @@
       <c r="A15" s="90"/>
       <c r="B15" s="92"/>
       <c r="C15" s="91"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="129"/>
-      <c r="M15" s="129"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="117"/>
       <c r="N15" s="70"/>
       <c r="O15" s="71"/>
     </row>
@@ -2886,16 +2886,16 @@
       <c r="A16" s="90"/>
       <c r="B16" s="92"/>
       <c r="C16" s="91"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="129"/>
-      <c r="M16" s="129"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="117"/>
       <c r="N16" s="70"/>
       <c r="O16" s="71"/>
     </row>
@@ -2903,16 +2903,16 @@
       <c r="A17" s="90"/>
       <c r="B17" s="92"/>
       <c r="C17" s="91"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="129"/>
-      <c r="M17" s="129"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="113"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="117"/>
       <c r="N17" s="70"/>
       <c r="O17" s="71"/>
     </row>
@@ -2920,16 +2920,16 @@
       <c r="A18" s="90"/>
       <c r="B18" s="92"/>
       <c r="C18" s="91"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="129"/>
-      <c r="M18" s="129"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="113"/>
+      <c r="K18" s="113"/>
+      <c r="L18" s="117"/>
+      <c r="M18" s="117"/>
       <c r="N18" s="70"/>
       <c r="O18" s="71"/>
     </row>
@@ -2937,16 +2937,16 @@
       <c r="A19" s="90"/>
       <c r="B19" s="92"/>
       <c r="C19" s="91"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="125"/>
-      <c r="K19" s="125"/>
-      <c r="L19" s="129"/>
-      <c r="M19" s="129"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="117"/>
       <c r="N19" s="70"/>
       <c r="O19" s="71"/>
     </row>
@@ -2954,16 +2954,16 @@
       <c r="A20" s="90"/>
       <c r="B20" s="92"/>
       <c r="C20" s="91"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="129"/>
-      <c r="M20" s="129"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="117"/>
+      <c r="M20" s="117"/>
       <c r="N20" s="70"/>
       <c r="O20" s="71"/>
     </row>
@@ -2971,16 +2971,16 @@
       <c r="A21" s="90"/>
       <c r="B21" s="91"/>
       <c r="C21" s="91"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="130"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="133"/>
-      <c r="J21" s="130"/>
-      <c r="K21" s="130"/>
-      <c r="L21" s="134"/>
-      <c r="M21" s="134"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="112"/>
       <c r="N21" s="68"/>
       <c r="O21" s="69"/>
     </row>
@@ -2988,16 +2988,16 @@
       <c r="A22" s="90"/>
       <c r="B22" s="92"/>
       <c r="C22" s="91"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="128"/>
-      <c r="J22" s="125"/>
-      <c r="K22" s="125"/>
-      <c r="L22" s="129"/>
-      <c r="M22" s="129"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="113"/>
+      <c r="L22" s="117"/>
+      <c r="M22" s="117"/>
       <c r="N22" s="70"/>
       <c r="O22" s="71"/>
     </row>
@@ -3005,16 +3005,16 @@
       <c r="A23" s="90"/>
       <c r="B23" s="92"/>
       <c r="C23" s="91"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="126"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="128"/>
-      <c r="J23" s="125"/>
-      <c r="K23" s="125"/>
-      <c r="L23" s="129"/>
-      <c r="M23" s="129"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="117"/>
       <c r="N23" s="70"/>
       <c r="O23" s="71"/>
     </row>
@@ -3022,16 +3022,16 @@
       <c r="A24" s="90"/>
       <c r="B24" s="91"/>
       <c r="C24" s="91"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="132"/>
-      <c r="I24" s="133"/>
-      <c r="J24" s="130"/>
-      <c r="K24" s="130"/>
-      <c r="L24" s="134"/>
-      <c r="M24" s="134"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="108"/>
+      <c r="K24" s="108"/>
+      <c r="L24" s="112"/>
+      <c r="M24" s="112"/>
       <c r="N24" s="68"/>
       <c r="O24" s="69"/>
     </row>
@@ -3039,16 +3039,16 @@
       <c r="A25" s="90"/>
       <c r="B25" s="92"/>
       <c r="C25" s="91"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="126"/>
-      <c r="H25" s="127"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="125"/>
-      <c r="K25" s="125"/>
-      <c r="L25" s="129"/>
-      <c r="M25" s="129"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="116"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="113"/>
+      <c r="L25" s="117"/>
+      <c r="M25" s="117"/>
       <c r="N25" s="70"/>
       <c r="O25" s="71"/>
     </row>
@@ -3056,16 +3056,16 @@
       <c r="A26" s="90"/>
       <c r="B26" s="92"/>
       <c r="C26" s="91"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="125"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="125"/>
-      <c r="K26" s="125"/>
-      <c r="L26" s="129"/>
-      <c r="M26" s="129"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="113"/>
+      <c r="K26" s="113"/>
+      <c r="L26" s="117"/>
+      <c r="M26" s="117"/>
       <c r="N26" s="70"/>
       <c r="O26" s="71"/>
     </row>
@@ -3073,16 +3073,16 @@
       <c r="A27" s="90"/>
       <c r="B27" s="92"/>
       <c r="C27" s="91"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="126"/>
-      <c r="H27" s="127"/>
-      <c r="I27" s="128"/>
-      <c r="J27" s="125"/>
-      <c r="K27" s="125"/>
-      <c r="L27" s="129"/>
-      <c r="M27" s="129"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="113"/>
+      <c r="L27" s="117"/>
+      <c r="M27" s="117"/>
       <c r="N27" s="70"/>
       <c r="O27" s="71"/>
     </row>
@@ -3090,16 +3090,16 @@
       <c r="A28" s="90"/>
       <c r="B28" s="92"/>
       <c r="C28" s="91"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="126"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="128"/>
-      <c r="J28" s="125"/>
-      <c r="K28" s="125"/>
-      <c r="L28" s="129"/>
-      <c r="M28" s="129"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="115"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="113"/>
+      <c r="L28" s="117"/>
+      <c r="M28" s="117"/>
       <c r="N28" s="70"/>
       <c r="O28" s="71"/>
     </row>
@@ -3107,16 +3107,16 @@
       <c r="A29" s="90"/>
       <c r="B29" s="92"/>
       <c r="C29" s="91"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="125"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="127"/>
-      <c r="I29" s="128"/>
-      <c r="J29" s="125"/>
-      <c r="K29" s="125"/>
-      <c r="L29" s="129"/>
-      <c r="M29" s="129"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="115"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="113"/>
+      <c r="L29" s="117"/>
+      <c r="M29" s="117"/>
       <c r="N29" s="70"/>
       <c r="O29" s="71"/>
     </row>
@@ -3124,16 +3124,16 @@
       <c r="A30" s="90"/>
       <c r="B30" s="92"/>
       <c r="C30" s="91"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="126"/>
-      <c r="H30" s="127"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="125"/>
-      <c r="K30" s="125"/>
-      <c r="L30" s="129"/>
-      <c r="M30" s="129"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="113"/>
+      <c r="L30" s="117"/>
+      <c r="M30" s="117"/>
       <c r="N30" s="70"/>
       <c r="O30" s="71"/>
     </row>
@@ -3141,16 +3141,16 @@
       <c r="A31" s="90"/>
       <c r="B31" s="92"/>
       <c r="C31" s="91"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="126"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="128"/>
-      <c r="J31" s="125"/>
-      <c r="K31" s="125"/>
-      <c r="L31" s="129"/>
-      <c r="M31" s="129"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="113"/>
+      <c r="L31" s="117"/>
+      <c r="M31" s="117"/>
       <c r="N31" s="70"/>
       <c r="O31" s="71"/>
     </row>
@@ -3158,16 +3158,16 @@
       <c r="A32" s="90"/>
       <c r="B32" s="92"/>
       <c r="C32" s="91"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="125"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="126"/>
-      <c r="H32" s="127"/>
-      <c r="I32" s="128"/>
-      <c r="J32" s="125"/>
-      <c r="K32" s="125"/>
-      <c r="L32" s="129"/>
-      <c r="M32" s="129"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="113"/>
+      <c r="L32" s="117"/>
+      <c r="M32" s="117"/>
       <c r="N32" s="70"/>
       <c r="O32" s="71"/>
     </row>
@@ -3175,16 +3175,16 @@
       <c r="A33" s="90"/>
       <c r="B33" s="92"/>
       <c r="C33" s="91"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="125"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="126"/>
-      <c r="H33" s="127"/>
-      <c r="I33" s="128"/>
-      <c r="J33" s="125"/>
-      <c r="K33" s="125"/>
-      <c r="L33" s="129"/>
-      <c r="M33" s="129"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="114"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="113"/>
+      <c r="L33" s="117"/>
+      <c r="M33" s="117"/>
       <c r="N33" s="70"/>
       <c r="O33" s="71"/>
     </row>
@@ -3192,16 +3192,16 @@
       <c r="A34" s="90"/>
       <c r="B34" s="91"/>
       <c r="C34" s="91"/>
-      <c r="D34" s="130"/>
-      <c r="E34" s="130"/>
-      <c r="F34" s="131"/>
-      <c r="G34" s="131"/>
-      <c r="H34" s="132"/>
-      <c r="I34" s="133"/>
-      <c r="J34" s="130"/>
-      <c r="K34" s="130"/>
-      <c r="L34" s="134"/>
-      <c r="M34" s="134"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="110"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="108"/>
+      <c r="K34" s="108"/>
+      <c r="L34" s="112"/>
+      <c r="M34" s="112"/>
       <c r="N34" s="68"/>
       <c r="O34" s="69"/>
     </row>
@@ -3209,16 +3209,16 @@
       <c r="A35" s="90"/>
       <c r="B35" s="92"/>
       <c r="C35" s="91"/>
-      <c r="D35" s="125"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="126"/>
-      <c r="H35" s="127"/>
-      <c r="I35" s="128"/>
-      <c r="J35" s="125"/>
-      <c r="K35" s="125"/>
-      <c r="L35" s="129"/>
-      <c r="M35" s="129"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="115"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="113"/>
+      <c r="K35" s="113"/>
+      <c r="L35" s="117"/>
+      <c r="M35" s="117"/>
       <c r="N35" s="70"/>
       <c r="O35" s="71"/>
     </row>
@@ -3226,16 +3226,16 @@
       <c r="A36" s="90"/>
       <c r="B36" s="92"/>
       <c r="C36" s="91"/>
-      <c r="D36" s="125"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="126"/>
-      <c r="G36" s="126"/>
-      <c r="H36" s="127"/>
-      <c r="I36" s="128"/>
-      <c r="J36" s="125"/>
-      <c r="K36" s="125"/>
-      <c r="L36" s="129"/>
-      <c r="M36" s="129"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="114"/>
+      <c r="H36" s="115"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="113"/>
+      <c r="L36" s="117"/>
+      <c r="M36" s="117"/>
       <c r="N36" s="70"/>
       <c r="O36" s="71"/>
     </row>
@@ -3243,50 +3243,50 @@
       <c r="A37" s="90"/>
       <c r="B37" s="91"/>
       <c r="C37" s="91"/>
-      <c r="D37" s="137"/>
-      <c r="E37" s="137"/>
-      <c r="F37" s="138"/>
-      <c r="G37" s="138"/>
-      <c r="H37" s="139"/>
-      <c r="I37" s="140"/>
-      <c r="J37" s="137"/>
-      <c r="K37" s="137"/>
-      <c r="L37" s="141"/>
-      <c r="M37" s="141"/>
+      <c r="D37" s="162"/>
+      <c r="E37" s="162"/>
+      <c r="F37" s="163"/>
+      <c r="G37" s="163"/>
+      <c r="H37" s="164"/>
+      <c r="I37" s="165"/>
+      <c r="J37" s="162"/>
+      <c r="K37" s="162"/>
+      <c r="L37" s="166"/>
+      <c r="M37" s="166"/>
       <c r="N37" s="72"/>
       <c r="O37" s="73"/>
     </row>
     <row r="38" spans="1:15" s="74" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="A38" s="113" t="s">
+      <c r="A38" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="114"/>
-      <c r="C38" s="114"/>
-      <c r="D38" s="107" t="e">
+      <c r="B38" s="174"/>
+      <c r="C38" s="174"/>
+      <c r="D38" s="167" t="e">
         <f>AVERAGE(D8:E37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="107"/>
-      <c r="F38" s="119" t="e">
+      <c r="E38" s="167"/>
+      <c r="F38" s="179" t="e">
         <f t="shared" ref="F38" si="0">AVERAGE(F8:G37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="119"/>
-      <c r="H38" s="122" t="e">
+      <c r="G38" s="179"/>
+      <c r="H38" s="182" t="e">
         <f t="shared" ref="H38" si="1">AVERAGE(H8:I37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="122"/>
-      <c r="J38" s="107" t="e">
+      <c r="I38" s="182"/>
+      <c r="J38" s="167" t="e">
         <f t="shared" ref="J38" si="2">AVERAGE(J8:K37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="107"/>
-      <c r="L38" s="110" t="e">
+      <c r="K38" s="167"/>
+      <c r="L38" s="170" t="e">
         <f t="shared" ref="L38" si="3">AVERAGE(L8:M37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M38" s="110"/>
+      <c r="M38" s="170"/>
       <c r="N38" s="75" t="e">
         <f>AVERAGE(N8:N37)</f>
         <v>#DIV/0!</v>
@@ -3297,36 +3297,36 @@
       </c>
     </row>
     <row r="39" spans="1:15" s="74" customFormat="1" ht="18.600000000000001" customHeight="1">
-      <c r="A39" s="115" t="s">
+      <c r="A39" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="116"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="108">
+      <c r="B39" s="176"/>
+      <c r="C39" s="176"/>
+      <c r="D39" s="168">
         <f>MIN(D8:E37)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="108"/>
-      <c r="F39" s="120">
+      <c r="E39" s="168"/>
+      <c r="F39" s="180">
         <f t="shared" ref="F39" si="4">MIN(F8:G37)</f>
         <v>0</v>
       </c>
-      <c r="G39" s="120"/>
-      <c r="H39" s="123">
+      <c r="G39" s="180"/>
+      <c r="H39" s="183">
         <f t="shared" ref="H39" si="5">MIN(H8:I37)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="123"/>
-      <c r="J39" s="108">
+      <c r="I39" s="183"/>
+      <c r="J39" s="168">
         <f t="shared" ref="J39" si="6">MIN(J8:K37)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="108"/>
-      <c r="L39" s="111">
+      <c r="K39" s="168"/>
+      <c r="L39" s="171">
         <f t="shared" ref="L39" si="7">MIN(L8:M37)</f>
         <v>0</v>
       </c>
-      <c r="M39" s="111"/>
+      <c r="M39" s="171"/>
       <c r="N39" s="77">
         <f>MIN(N8:N37)</f>
         <v>0</v>
@@ -3337,42 +3337,42 @@
       </c>
     </row>
     <row r="40" spans="1:15" s="74" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A40" s="117" t="s">
+      <c r="A40" s="177" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="118"/>
-      <c r="C40" s="118"/>
-      <c r="D40" s="109">
+      <c r="B40" s="178"/>
+      <c r="C40" s="178"/>
+      <c r="D40" s="169">
         <f>MAX(D8:E37)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="109"/>
-      <c r="F40" s="121">
+      <c r="E40" s="169"/>
+      <c r="F40" s="181">
         <f t="shared" ref="F40" si="8">MAX(F8:G37)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="121"/>
-      <c r="H40" s="124">
+      <c r="G40" s="181"/>
+      <c r="H40" s="184">
         <f t="shared" ref="H40" si="9">MAX(H8:I37)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="124"/>
-      <c r="J40" s="109">
+      <c r="I40" s="184"/>
+      <c r="J40" s="169">
         <f t="shared" ref="J40" si="10">MAX(J8:K37)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="109"/>
-      <c r="L40" s="112">
+      <c r="K40" s="169"/>
+      <c r="L40" s="172">
         <f t="shared" ref="L40" si="11">MAX(L8:M37)</f>
         <v>0</v>
       </c>
-      <c r="M40" s="112"/>
+      <c r="M40" s="172"/>
       <c r="N40" s="79">
-        <f>MIN(N8:N37)</f>
+        <f>MAX(N8:N37)</f>
         <v>0</v>
       </c>
       <c r="O40" s="80">
-        <f>MIN(O8:O37)</f>
+        <f>MAX(O8:O37)</f>
         <v>0</v>
       </c>
     </row>
@@ -3380,32 +3380,32 @@
       <c r="A41" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="145"/>
-      <c r="C41" s="145"/>
-      <c r="D41" s="148" t="s">
+      <c r="B41" s="156"/>
+      <c r="C41" s="156"/>
+      <c r="D41" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="148"/>
+      <c r="E41" s="159"/>
       <c r="F41" s="81"/>
       <c r="G41" s="82"/>
       <c r="H41" s="82"/>
       <c r="I41" s="82"/>
       <c r="J41" s="82"/>
-      <c r="K41" s="142" t="s">
+      <c r="K41" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="L41" s="142"/>
-      <c r="M41" s="144"/>
-      <c r="N41" s="144"/>
+      <c r="L41" s="153"/>
+      <c r="M41" s="155"/>
+      <c r="N41" s="155"/>
       <c r="O41" s="83" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="54" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A42" s="146" t="s">
+      <c r="A42" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="146"/>
+      <c r="B42" s="157"/>
       <c r="C42" s="86"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -3413,21 +3413,21 @@
       <c r="G42" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="H42" s="146" t="s">
+      <c r="H42" s="157" t="s">
         <v>34</v>
       </c>
-      <c r="I42" s="146"/>
-      <c r="J42" s="146"/>
-      <c r="K42" s="146"/>
+      <c r="I42" s="157"/>
+      <c r="J42" s="157"/>
+      <c r="K42" s="157"/>
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A43" s="147" t="s">
+      <c r="A43" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="147"/>
+      <c r="B43" s="158"/>
       <c r="C43" s="87"/>
       <c r="D43" s="82"/>
       <c r="E43" s="82"/>
@@ -3470,49 +3470,239 @@
       <c r="M51" s="85"/>
     </row>
     <row r="75" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C75" s="143"/>
-      <c r="D75" s="143"/>
-      <c r="E75" s="143"/>
-      <c r="I75" s="143"/>
-      <c r="J75" s="143"/>
-      <c r="K75" s="143"/>
-      <c r="L75" s="143"/>
-      <c r="M75" s="143"/>
-      <c r="N75" s="143"/>
-      <c r="O75" s="143"/>
+      <c r="C75" s="154"/>
+      <c r="D75" s="154"/>
+      <c r="E75" s="154"/>
+      <c r="I75" s="154"/>
+      <c r="J75" s="154"/>
+      <c r="K75" s="154"/>
+      <c r="L75" s="154"/>
+      <c r="M75" s="154"/>
+      <c r="N75" s="154"/>
+      <c r="O75" s="154"/>
     </row>
     <row r="76" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C76" s="143"/>
-      <c r="D76" s="143"/>
-      <c r="E76" s="143"/>
-      <c r="F76" s="143"/>
-      <c r="I76" s="143"/>
-      <c r="J76" s="143"/>
-      <c r="K76" s="143"/>
-      <c r="L76" s="143"/>
-      <c r="M76" s="143"/>
-      <c r="N76" s="143"/>
-      <c r="O76" s="143"/>
+      <c r="C76" s="154"/>
+      <c r="D76" s="154"/>
+      <c r="E76" s="154"/>
+      <c r="F76" s="154"/>
+      <c r="I76" s="154"/>
+      <c r="J76" s="154"/>
+      <c r="K76" s="154"/>
+      <c r="L76" s="154"/>
+      <c r="M76" s="154"/>
+      <c r="N76" s="154"/>
+      <c r="O76" s="154"/>
     </row>
     <row r="77" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C77" s="143"/>
-      <c r="D77" s="143"/>
-      <c r="E77" s="143"/>
-      <c r="I77" s="143"/>
-      <c r="J77" s="143"/>
-      <c r="K77" s="143"/>
-      <c r="L77" s="143"/>
-      <c r="M77" s="143"/>
-      <c r="N77" s="143"/>
-      <c r="O77" s="143"/>
+      <c r="C77" s="154"/>
+      <c r="D77" s="154"/>
+      <c r="E77" s="154"/>
+      <c r="I77" s="154"/>
+      <c r="J77" s="154"/>
+      <c r="K77" s="154"/>
+      <c r="L77" s="154"/>
+      <c r="M77" s="154"/>
+      <c r="N77" s="154"/>
+      <c r="O77" s="154"/>
     </row>
     <row r="78" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C78" s="143"/>
-      <c r="D78" s="143"/>
-      <c r="E78" s="143"/>
+      <c r="C78" s="154"/>
+      <c r="D78" s="154"/>
+      <c r="E78" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="214">
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="I75:K75"/>
+    <mergeCell ref="L75:O75"/>
+    <mergeCell ref="L76:O76"/>
+    <mergeCell ref="L77:O77"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="I77:K77"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="H8:I8"/>
@@ -3537,196 +3727,6 @@
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="I75:K75"/>
-    <mergeCell ref="L75:O75"/>
-    <mergeCell ref="L76:O76"/>
-    <mergeCell ref="L77:O77"/>
-    <mergeCell ref="I76:K76"/>
-    <mergeCell ref="I77:K77"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="C76:F76"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="H6">
@@ -3739,8 +3739,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:O7 A1:M3 N1:O2 A4:B5 F4:G5 J4:J5 L4:M5 A38:O40 A41 A42:O43 O41 K41:L41 D41:E41 A6:C6 N3" xr:uid="{B9EF1D55-A16F-4117-9DDB-4BCD7891BC4B}">
+  <dataValidations count="3">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:O7 A1:M3 N1:O2 A4:B5 F4:G5 J4:J5 L4:M5 N3 A41 A42:O43 O41 K41:L41 D41:E41 A6:C6 A38:M40" xr:uid="{B9EF1D55-A16F-4117-9DDB-4BCD7891BC4B}">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="Q29" xr:uid="{21AD56C4-EF69-441B-AE58-CE11BA553153}"/>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N38:O40" xr:uid="{9A70F0C6-7C31-4805-B648-4F0F875B7C79}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3758,7 +3763,7 @@
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D41" sqref="D41:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3769,188 +3774,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="17" customFormat="1" ht="15.75">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="194" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="228"/>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
-      <c r="K1" s="228"/>
-      <c r="L1" s="228"/>
-      <c r="M1" s="228"/>
-      <c r="N1" s="169" t="s">
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="194"/>
+      <c r="L1" s="194"/>
+      <c r="M1" s="194"/>
+      <c r="N1" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="169"/>
+      <c r="O1" s="151"/>
     </row>
     <row r="2" spans="1:15" s="17" customFormat="1" ht="15.75">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
-      <c r="J2" s="229"/>
-      <c r="K2" s="229"/>
-      <c r="L2" s="229"/>
-      <c r="M2" s="229"/>
-      <c r="N2" s="170" t="s">
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="170"/>
+      <c r="O2" s="152"/>
     </row>
     <row r="3" spans="1:15" s="17" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="229"/>
-      <c r="B3" s="229"/>
-      <c r="C3" s="229"/>
-      <c r="D3" s="229"/>
-      <c r="E3" s="229"/>
-      <c r="F3" s="229"/>
-      <c r="G3" s="229"/>
-      <c r="H3" s="229"/>
-      <c r="I3" s="229"/>
-      <c r="J3" s="229"/>
-      <c r="K3" s="229"/>
-      <c r="L3" s="229"/>
-      <c r="M3" s="229"/>
+      <c r="A3" s="195"/>
+      <c r="B3" s="195"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="195"/>
+      <c r="H3" s="195"/>
+      <c r="I3" s="195"/>
+      <c r="J3" s="195"/>
+      <c r="K3" s="195"/>
+      <c r="L3" s="195"/>
+      <c r="M3" s="195"/>
       <c r="N3" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="329"/>
+      <c r="O3" s="107"/>
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" ht="23.25" customHeight="1">
       <c r="A4" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="230">
+      <c r="B4" s="196">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="231"/>
-      <c r="D4" s="232"/>
-      <c r="E4" s="233" t="s">
+      <c r="C4" s="197"/>
+      <c r="D4" s="198"/>
+      <c r="E4" s="199" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="234"/>
-      <c r="G4" s="230">
+      <c r="F4" s="200"/>
+      <c r="G4" s="196">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="232"/>
+      <c r="H4" s="198"/>
       <c r="I4" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="235">
+      <c r="J4" s="201">
         <f>Page1!K4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="235"/>
-      <c r="L4" s="237" t="s">
+      <c r="K4" s="201"/>
+      <c r="L4" s="203" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="237"/>
-      <c r="N4" s="230">
+      <c r="M4" s="203"/>
+      <c r="N4" s="196">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="236"/>
+      <c r="O4" s="202"/>
     </row>
     <row r="5" spans="1:15" s="2" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="191">
+      <c r="B5" s="192">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="194"/>
-      <c r="D5" s="195"/>
-      <c r="E5" s="196" t="s">
+      <c r="C5" s="240"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="197"/>
-      <c r="G5" s="191">
+      <c r="F5" s="242"/>
+      <c r="G5" s="192">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="195"/>
+      <c r="H5" s="193"/>
       <c r="I5" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="238">
+      <c r="J5" s="204">
         <f>Page1!K5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="238"/>
-      <c r="L5" s="193" t="s">
+      <c r="K5" s="204"/>
+      <c r="L5" s="239" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="193"/>
-      <c r="N5" s="191">
+      <c r="M5" s="239"/>
+      <c r="N5" s="192">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="192"/>
+      <c r="O5" s="238"/>
     </row>
     <row r="6" spans="1:15" s="3" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A6" s="188" t="s">
+      <c r="A6" s="235" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="189"/>
-      <c r="G6" s="189"/>
-      <c r="H6" s="189"/>
-      <c r="I6" s="189"/>
-      <c r="J6" s="189"/>
-      <c r="K6" s="189"/>
-      <c r="L6" s="189"/>
-      <c r="M6" s="189"/>
-      <c r="N6" s="189"/>
-      <c r="O6" s="190"/>
+      <c r="B6" s="236"/>
+      <c r="C6" s="236"/>
+      <c r="D6" s="236"/>
+      <c r="E6" s="236"/>
+      <c r="F6" s="236"/>
+      <c r="G6" s="236"/>
+      <c r="H6" s="236"/>
+      <c r="I6" s="236"/>
+      <c r="J6" s="236"/>
+      <c r="K6" s="236"/>
+      <c r="L6" s="236"/>
+      <c r="M6" s="236"/>
+      <c r="N6" s="236"/>
+      <c r="O6" s="237"/>
     </row>
     <row r="7" spans="1:15" s="3" customFormat="1" ht="15">
-      <c r="A7" s="239" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="240"/>
-      <c r="C7" s="241"/>
-      <c r="D7" s="184" t="s">
+      <c r="A7" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="206"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="231" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="184"/>
-      <c r="F7" s="184"/>
-      <c r="G7" s="184"/>
-      <c r="H7" s="185" t="s">
+      <c r="E7" s="231"/>
+      <c r="F7" s="231"/>
+      <c r="G7" s="231"/>
+      <c r="H7" s="232" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="186"/>
-      <c r="J7" s="186"/>
-      <c r="K7" s="187"/>
-      <c r="L7" s="198" t="s">
+      <c r="I7" s="233"/>
+      <c r="J7" s="233"/>
+      <c r="K7" s="234"/>
+      <c r="L7" s="243" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="199"/>
-      <c r="N7" s="199"/>
-      <c r="O7" s="200"/>
+      <c r="M7" s="244"/>
+      <c r="N7" s="244"/>
+      <c r="O7" s="245"/>
     </row>
     <row r="8" spans="1:15" s="3" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A8" s="242"/>
-      <c r="B8" s="243"/>
-      <c r="C8" s="244"/>
+      <c r="A8" s="208"/>
+      <c r="B8" s="209"/>
+      <c r="C8" s="210"/>
       <c r="D8" s="18">
         <v>1</v>
       </c>
@@ -5044,27 +5049,27 @@
       <c r="C39" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="221" t="e">
+      <c r="D39" s="185" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="222"/>
-      <c r="F39" s="222"/>
-      <c r="G39" s="223"/>
-      <c r="H39" s="224" t="e">
+      <c r="E39" s="186"/>
+      <c r="F39" s="186"/>
+      <c r="G39" s="187"/>
+      <c r="H39" s="188" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="225"/>
-      <c r="J39" s="225"/>
-      <c r="K39" s="226"/>
-      <c r="L39" s="224" t="e">
+      <c r="I39" s="189"/>
+      <c r="J39" s="189"/>
+      <c r="K39" s="190"/>
+      <c r="L39" s="188" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="225"/>
-      <c r="N39" s="225"/>
-      <c r="O39" s="227"/>
+      <c r="M39" s="189"/>
+      <c r="N39" s="189"/>
+      <c r="O39" s="191"/>
     </row>
     <row r="40" spans="1:15" ht="18" customHeight="1">
       <c r="A40" s="24"/>
@@ -5072,27 +5077,27 @@
       <c r="C40" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="204" t="e">
+      <c r="D40" s="214" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="205"/>
-      <c r="F40" s="205"/>
-      <c r="G40" s="206"/>
-      <c r="H40" s="207" t="e">
+      <c r="E40" s="215"/>
+      <c r="F40" s="215"/>
+      <c r="G40" s="216"/>
+      <c r="H40" s="217" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="208"/>
-      <c r="J40" s="208"/>
-      <c r="K40" s="209"/>
-      <c r="L40" s="207" t="e">
+      <c r="I40" s="218"/>
+      <c r="J40" s="218"/>
+      <c r="K40" s="219"/>
+      <c r="L40" s="217" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="208"/>
-      <c r="N40" s="208"/>
-      <c r="O40" s="210"/>
+      <c r="M40" s="218"/>
+      <c r="N40" s="218"/>
+      <c r="O40" s="220"/>
     </row>
     <row r="41" spans="1:15" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="26"/>
@@ -5100,58 +5105,58 @@
       <c r="C41" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="211" t="e">
+      <c r="D41" s="221" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="212"/>
-      <c r="F41" s="212"/>
-      <c r="G41" s="213"/>
-      <c r="H41" s="214" t="e">
+      <c r="E41" s="222"/>
+      <c r="F41" s="222"/>
+      <c r="G41" s="223"/>
+      <c r="H41" s="224" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="215"/>
-      <c r="J41" s="215"/>
-      <c r="K41" s="216"/>
-      <c r="L41" s="214" t="e">
+      <c r="I41" s="225"/>
+      <c r="J41" s="225"/>
+      <c r="K41" s="226"/>
+      <c r="L41" s="224" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="215"/>
-      <c r="N41" s="215"/>
-      <c r="O41" s="217"/>
+      <c r="M41" s="225"/>
+      <c r="N41" s="225"/>
+      <c r="O41" s="227"/>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1">
       <c r="A42" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="219"/>
-      <c r="C42" s="219"/>
-      <c r="D42" s="220" t="s">
+      <c r="B42" s="229"/>
+      <c r="C42" s="229"/>
+      <c r="D42" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="220"/>
-      <c r="F42" s="220"/>
-      <c r="G42" s="220"/>
+      <c r="E42" s="230"/>
+      <c r="F42" s="230"/>
+      <c r="G42" s="230"/>
       <c r="H42" s="29"/>
       <c r="I42" s="29"/>
       <c r="J42" s="29"/>
-      <c r="K42" s="202" t="s">
+      <c r="K42" s="212" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="202"/>
-      <c r="M42" s="220"/>
-      <c r="N42" s="220"/>
+      <c r="L42" s="212"/>
+      <c r="M42" s="230"/>
+      <c r="N42" s="230"/>
       <c r="O42" s="30" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A43" s="201" t="s">
+      <c r="A43" s="211" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="201"/>
+      <c r="B43" s="211"/>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
       <c r="E43" s="1"/>
@@ -5160,23 +5165,23 @@
         <f>Page1!G42</f>
         <v>Reference:</v>
       </c>
-      <c r="H43" s="218" t="str">
+      <c r="H43" s="228" t="str">
         <f>Page1!H42</f>
         <v>MRMP: 00004833.002 GCAS:21088174.001</v>
       </c>
-      <c r="I43" s="218"/>
-      <c r="J43" s="218"/>
-      <c r="K43" s="218"/>
+      <c r="I43" s="228"/>
+      <c r="J43" s="228"/>
+      <c r="K43" s="228"/>
       <c r="L43" s="1"/>
       <c r="M43" s="29"/>
       <c r="N43" s="29"/>
       <c r="O43" s="29"/>
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A44" s="201" t="s">
+      <c r="A44" s="211" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="201"/>
+      <c r="B44" s="211"/>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
       <c r="E44" s="29"/>
@@ -5188,13 +5193,36 @@
       <c r="K44" s="29"/>
       <c r="L44" s="29"/>
       <c r="M44" s="29"/>
-      <c r="N44" s="203" t="s">
+      <c r="N44" s="213" t="s">
         <v>39</v>
       </c>
-      <c r="O44" s="203"/>
+      <c r="O44" s="213"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="M42:N42"/>
     <mergeCell ref="D39:G39"/>
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:O39"/>
@@ -5211,29 +5239,6 @@
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="A7:C8"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="L7:O7"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
@@ -5281,188 +5286,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="262" t="s">
+      <c r="A1" s="246" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="262"/>
-      <c r="C1" s="262"/>
-      <c r="D1" s="262"/>
-      <c r="E1" s="262"/>
-      <c r="F1" s="262"/>
-      <c r="G1" s="262"/>
-      <c r="H1" s="262"/>
-      <c r="I1" s="262"/>
-      <c r="J1" s="262"/>
-      <c r="K1" s="262"/>
-      <c r="L1" s="262"/>
-      <c r="M1" s="262"/>
-      <c r="N1" s="169" t="s">
+      <c r="B1" s="246"/>
+      <c r="C1" s="246"/>
+      <c r="D1" s="246"/>
+      <c r="E1" s="246"/>
+      <c r="F1" s="246"/>
+      <c r="G1" s="246"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
+      <c r="J1" s="246"/>
+      <c r="K1" s="246"/>
+      <c r="L1" s="246"/>
+      <c r="M1" s="246"/>
+      <c r="N1" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="169"/>
+      <c r="O1" s="151"/>
     </row>
     <row r="2" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="263" t="s">
+      <c r="A2" s="247" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="263"/>
-      <c r="C2" s="263"/>
-      <c r="D2" s="263"/>
-      <c r="E2" s="263"/>
-      <c r="F2" s="263"/>
-      <c r="G2" s="263"/>
-      <c r="H2" s="263"/>
-      <c r="I2" s="263"/>
-      <c r="J2" s="263"/>
-      <c r="K2" s="263"/>
-      <c r="L2" s="263"/>
-      <c r="M2" s="263"/>
-      <c r="N2" s="170" t="s">
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
+      <c r="H2" s="247"/>
+      <c r="I2" s="247"/>
+      <c r="J2" s="247"/>
+      <c r="K2" s="247"/>
+      <c r="L2" s="247"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="170"/>
+      <c r="O2" s="152"/>
     </row>
     <row r="3" spans="1:15" s="42" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="263"/>
-      <c r="B3" s="263"/>
-      <c r="C3" s="263"/>
-      <c r="D3" s="263"/>
-      <c r="E3" s="263"/>
-      <c r="F3" s="263"/>
-      <c r="G3" s="263"/>
-      <c r="H3" s="263"/>
-      <c r="I3" s="263"/>
-      <c r="J3" s="263"/>
-      <c r="K3" s="263"/>
-      <c r="L3" s="263"/>
-      <c r="M3" s="263"/>
+      <c r="A3" s="247"/>
+      <c r="B3" s="247"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="247"/>
+      <c r="H3" s="247"/>
+      <c r="I3" s="247"/>
+      <c r="J3" s="247"/>
+      <c r="K3" s="247"/>
+      <c r="L3" s="247"/>
+      <c r="M3" s="247"/>
       <c r="N3" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="329"/>
+      <c r="O3" s="107"/>
     </row>
     <row r="4" spans="1:15" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="A4" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="230">
+      <c r="B4" s="196">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="231"/>
-      <c r="D4" s="232"/>
-      <c r="E4" s="233" t="s">
+      <c r="C4" s="197"/>
+      <c r="D4" s="198"/>
+      <c r="E4" s="199" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="234"/>
-      <c r="G4" s="230">
+      <c r="F4" s="200"/>
+      <c r="G4" s="196">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="232"/>
+      <c r="H4" s="198"/>
       <c r="I4" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="235">
+      <c r="J4" s="201">
         <f>Page1!K4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="235"/>
-      <c r="L4" s="237" t="s">
+      <c r="K4" s="201"/>
+      <c r="L4" s="203" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="237"/>
-      <c r="N4" s="230">
+      <c r="M4" s="203"/>
+      <c r="N4" s="196">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="236"/>
+      <c r="O4" s="202"/>
     </row>
     <row r="5" spans="1:15" s="9" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="191">
+      <c r="B5" s="192">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="194"/>
-      <c r="D5" s="195"/>
-      <c r="E5" s="196" t="s">
+      <c r="C5" s="240"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="241" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="197"/>
-      <c r="G5" s="191">
+      <c r="F5" s="242"/>
+      <c r="G5" s="192">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="195"/>
+      <c r="H5" s="193"/>
       <c r="I5" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="238">
+      <c r="J5" s="204">
         <f>Page1!K5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="238"/>
-      <c r="L5" s="193" t="s">
+      <c r="K5" s="204"/>
+      <c r="L5" s="239" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="193"/>
-      <c r="N5" s="191">
+      <c r="M5" s="239"/>
+      <c r="N5" s="192">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="192"/>
+      <c r="O5" s="238"/>
     </row>
     <row r="6" spans="1:15" s="43" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A6" s="264" t="s">
+      <c r="A6" s="248" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="265"/>
-      <c r="C6" s="265"/>
-      <c r="D6" s="265"/>
-      <c r="E6" s="265"/>
-      <c r="F6" s="265"/>
-      <c r="G6" s="265"/>
-      <c r="H6" s="265"/>
-      <c r="I6" s="265"/>
-      <c r="J6" s="265"/>
-      <c r="K6" s="265"/>
-      <c r="L6" s="265"/>
-      <c r="M6" s="265"/>
-      <c r="N6" s="265"/>
-      <c r="O6" s="266"/>
+      <c r="B6" s="249"/>
+      <c r="C6" s="249"/>
+      <c r="D6" s="249"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="249"/>
+      <c r="G6" s="249"/>
+      <c r="H6" s="249"/>
+      <c r="I6" s="249"/>
+      <c r="J6" s="249"/>
+      <c r="K6" s="249"/>
+      <c r="L6" s="249"/>
+      <c r="M6" s="249"/>
+      <c r="N6" s="249"/>
+      <c r="O6" s="250"/>
     </row>
     <row r="7" spans="1:15" s="43" customFormat="1" ht="15">
-      <c r="A7" s="267" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="268"/>
-      <c r="C7" s="269"/>
-      <c r="D7" s="273" t="s">
+      <c r="A7" s="251" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="252"/>
+      <c r="C7" s="253"/>
+      <c r="D7" s="257" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="273"/>
-      <c r="F7" s="273"/>
-      <c r="G7" s="273"/>
-      <c r="H7" s="274" t="s">
+      <c r="E7" s="257"/>
+      <c r="F7" s="257"/>
+      <c r="G7" s="257"/>
+      <c r="H7" s="258" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="275"/>
-      <c r="J7" s="275"/>
-      <c r="K7" s="276"/>
-      <c r="L7" s="277" t="s">
+      <c r="I7" s="259"/>
+      <c r="J7" s="259"/>
+      <c r="K7" s="260"/>
+      <c r="L7" s="261" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="278"/>
-      <c r="N7" s="278"/>
-      <c r="O7" s="279"/>
+      <c r="M7" s="262"/>
+      <c r="N7" s="262"/>
+      <c r="O7" s="263"/>
     </row>
     <row r="8" spans="1:15" s="43" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A8" s="270"/>
-      <c r="B8" s="271"/>
-      <c r="C8" s="272"/>
+      <c r="A8" s="254"/>
+      <c r="B8" s="255"/>
+      <c r="C8" s="256"/>
       <c r="D8" s="44">
         <v>1</v>
       </c>
@@ -6556,27 +6561,27 @@
       <c r="C39" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="248" t="e">
+      <c r="D39" s="271" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="249"/>
-      <c r="F39" s="249"/>
-      <c r="G39" s="250"/>
-      <c r="H39" s="251" t="e">
+      <c r="E39" s="272"/>
+      <c r="F39" s="272"/>
+      <c r="G39" s="273"/>
+      <c r="H39" s="274" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="252"/>
-      <c r="J39" s="252"/>
-      <c r="K39" s="253"/>
-      <c r="L39" s="251" t="e">
+      <c r="I39" s="275"/>
+      <c r="J39" s="275"/>
+      <c r="K39" s="276"/>
+      <c r="L39" s="274" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="252"/>
-      <c r="N39" s="252"/>
-      <c r="O39" s="254"/>
+      <c r="M39" s="275"/>
+      <c r="N39" s="275"/>
+      <c r="O39" s="277"/>
     </row>
     <row r="40" spans="1:15" s="54" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="55"/>
@@ -6584,27 +6589,27 @@
       <c r="C40" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="255" t="e">
+      <c r="D40" s="278" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="256"/>
-      <c r="F40" s="256"/>
-      <c r="G40" s="257"/>
-      <c r="H40" s="258" t="e">
+      <c r="E40" s="279"/>
+      <c r="F40" s="279"/>
+      <c r="G40" s="280"/>
+      <c r="H40" s="281" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="259"/>
-      <c r="J40" s="259"/>
-      <c r="K40" s="260"/>
-      <c r="L40" s="258" t="e">
+      <c r="I40" s="282"/>
+      <c r="J40" s="282"/>
+      <c r="K40" s="283"/>
+      <c r="L40" s="281" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="259"/>
-      <c r="N40" s="259"/>
-      <c r="O40" s="261"/>
+      <c r="M40" s="282"/>
+      <c r="N40" s="282"/>
+      <c r="O40" s="284"/>
     </row>
     <row r="41" spans="1:15" s="54" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A41" s="57"/>
@@ -6612,58 +6617,58 @@
       <c r="C41" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="280" t="e">
+      <c r="D41" s="264" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="281"/>
-      <c r="F41" s="281"/>
-      <c r="G41" s="282"/>
-      <c r="H41" s="245" t="e">
+      <c r="E41" s="265"/>
+      <c r="F41" s="265"/>
+      <c r="G41" s="266"/>
+      <c r="H41" s="267" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="246"/>
-      <c r="J41" s="246"/>
-      <c r="K41" s="283"/>
-      <c r="L41" s="245" t="e">
+      <c r="I41" s="268"/>
+      <c r="J41" s="268"/>
+      <c r="K41" s="269"/>
+      <c r="L41" s="267" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="246"/>
-      <c r="N41" s="246"/>
-      <c r="O41" s="247"/>
+      <c r="M41" s="268"/>
+      <c r="N41" s="268"/>
+      <c r="O41" s="270"/>
     </row>
     <row r="42" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A42" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="219"/>
-      <c r="C42" s="219"/>
-      <c r="D42" s="220" t="s">
+      <c r="B42" s="229"/>
+      <c r="C42" s="229"/>
+      <c r="D42" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="220"/>
-      <c r="F42" s="220"/>
-      <c r="G42" s="220"/>
+      <c r="E42" s="230"/>
+      <c r="F42" s="230"/>
+      <c r="G42" s="230"/>
       <c r="H42" s="29"/>
       <c r="I42" s="29"/>
       <c r="J42" s="29"/>
-      <c r="K42" s="202" t="s">
+      <c r="K42" s="212" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="202"/>
-      <c r="M42" s="220"/>
-      <c r="N42" s="220"/>
+      <c r="L42" s="212"/>
+      <c r="M42" s="230"/>
+      <c r="N42" s="230"/>
       <c r="O42" s="31" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A43" s="201" t="s">
+      <c r="A43" s="211" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="201"/>
+      <c r="B43" s="211"/>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
       <c r="E43" s="1"/>
@@ -6672,12 +6677,12 @@
         <f>Page1!G42</f>
         <v>Reference:</v>
       </c>
-      <c r="H43" s="218" t="str">
+      <c r="H43" s="228" t="str">
         <f>Page1!H42</f>
         <v>MRMP: 00004833.002 GCAS:21088174.001</v>
       </c>
-      <c r="I43" s="218"/>
-      <c r="J43" s="218"/>
+      <c r="I43" s="228"/>
+      <c r="J43" s="228"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="29"/>
@@ -6685,10 +6690,10 @@
       <c r="O43" s="29"/>
     </row>
     <row r="44" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="201" t="s">
+      <c r="A44" s="211" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="201"/>
+      <c r="B44" s="211"/>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
       <c r="E44" s="29"/>
@@ -6700,13 +6705,36 @@
       <c r="K44" s="29"/>
       <c r="L44" s="29"/>
       <c r="M44" s="29"/>
-      <c r="N44" s="203" t="s">
+      <c r="N44" s="213" t="s">
         <v>43</v>
       </c>
-      <c r="O44" s="203"/>
+      <c r="O44" s="213"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="H43:J43"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:G42"/>
     <mergeCell ref="M42:N42"/>
@@ -6723,29 +6751,6 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:O40"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThan">
@@ -6793,175 +6798,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="262" t="s">
+      <c r="A1" s="246" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="262"/>
-      <c r="C1" s="262"/>
-      <c r="D1" s="262"/>
-      <c r="E1" s="262"/>
-      <c r="F1" s="262"/>
-      <c r="G1" s="262"/>
-      <c r="H1" s="262"/>
-      <c r="I1" s="262"/>
-      <c r="J1" s="262"/>
-      <c r="K1" s="262"/>
-      <c r="L1" s="262"/>
-      <c r="M1" s="262"/>
-      <c r="N1" s="169" t="s">
+      <c r="B1" s="246"/>
+      <c r="C1" s="246"/>
+      <c r="D1" s="246"/>
+      <c r="E1" s="246"/>
+      <c r="F1" s="246"/>
+      <c r="G1" s="246"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
+      <c r="J1" s="246"/>
+      <c r="K1" s="246"/>
+      <c r="L1" s="246"/>
+      <c r="M1" s="246"/>
+      <c r="N1" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="169"/>
+      <c r="O1" s="151"/>
     </row>
     <row r="2" spans="1:15" s="42" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="263" t="s">
+      <c r="A2" s="247" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="263"/>
-      <c r="C2" s="263"/>
-      <c r="D2" s="263"/>
-      <c r="E2" s="263"/>
-      <c r="F2" s="263"/>
-      <c r="G2" s="263"/>
-      <c r="H2" s="263"/>
-      <c r="I2" s="263"/>
-      <c r="J2" s="263"/>
-      <c r="K2" s="263"/>
-      <c r="L2" s="263"/>
-      <c r="M2" s="263"/>
-      <c r="N2" s="170" t="s">
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
+      <c r="H2" s="247"/>
+      <c r="I2" s="247"/>
+      <c r="J2" s="247"/>
+      <c r="K2" s="247"/>
+      <c r="L2" s="247"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="170"/>
+      <c r="O2" s="152"/>
     </row>
     <row r="3" spans="1:15" s="42" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="263"/>
-      <c r="B3" s="263"/>
-      <c r="C3" s="263"/>
-      <c r="D3" s="263"/>
-      <c r="E3" s="263"/>
-      <c r="F3" s="263"/>
-      <c r="G3" s="263"/>
-      <c r="H3" s="263"/>
-      <c r="I3" s="263"/>
-      <c r="J3" s="263"/>
-      <c r="K3" s="263"/>
-      <c r="L3" s="263"/>
-      <c r="M3" s="263"/>
+      <c r="A3" s="247"/>
+      <c r="B3" s="247"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="247"/>
+      <c r="H3" s="247"/>
+      <c r="I3" s="247"/>
+      <c r="J3" s="247"/>
+      <c r="K3" s="247"/>
+      <c r="L3" s="247"/>
+      <c r="M3" s="247"/>
       <c r="N3" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="329"/>
+      <c r="O3" s="107"/>
     </row>
     <row r="4" spans="1:15" s="9" customFormat="1" ht="23.25" customHeight="1">
       <c r="A4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="317">
+      <c r="B4" s="292">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="318"/>
-      <c r="D4" s="319"/>
-      <c r="E4" s="320" t="s">
+      <c r="C4" s="293"/>
+      <c r="D4" s="294"/>
+      <c r="E4" s="295" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="321"/>
-      <c r="G4" s="317">
+      <c r="F4" s="296"/>
+      <c r="G4" s="292">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="319"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="322">
+      <c r="J4" s="297">
         <f>Page1!K4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="322"/>
-      <c r="L4" s="323" t="s">
+      <c r="K4" s="297"/>
+      <c r="L4" s="298" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="323"/>
-      <c r="N4" s="324">
+      <c r="M4" s="298"/>
+      <c r="N4" s="299">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="325"/>
+      <c r="O4" s="300"/>
     </row>
     <row r="5" spans="1:15" s="9" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="298">
+      <c r="B5" s="301">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="326"/>
-      <c r="D5" s="299"/>
-      <c r="E5" s="327" t="s">
+      <c r="C5" s="302"/>
+      <c r="D5" s="303"/>
+      <c r="E5" s="304" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="328"/>
-      <c r="G5" s="298">
+      <c r="F5" s="305"/>
+      <c r="G5" s="301">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="299"/>
+      <c r="H5" s="303"/>
       <c r="I5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="300">
+      <c r="J5" s="306">
         <f>Page1!K5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="300"/>
-      <c r="L5" s="301" t="s">
+      <c r="K5" s="306"/>
+      <c r="L5" s="307" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="301"/>
-      <c r="N5" s="302">
+      <c r="M5" s="307"/>
+      <c r="N5" s="308">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="303"/>
+      <c r="O5" s="309"/>
     </row>
     <row r="6" spans="1:15" s="43" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A6" s="312" t="s">
+      <c r="A6" s="285" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="313"/>
-      <c r="C6" s="313"/>
-      <c r="D6" s="314"/>
-      <c r="E6" s="314"/>
-      <c r="F6" s="314"/>
-      <c r="G6" s="315"/>
-      <c r="H6" s="316"/>
-      <c r="I6" s="314"/>
-      <c r="J6" s="314"/>
-      <c r="K6" s="314"/>
-      <c r="L6" s="314"/>
-      <c r="M6" s="314"/>
-      <c r="N6" s="314"/>
-      <c r="O6" s="315"/>
+      <c r="B6" s="286"/>
+      <c r="C6" s="286"/>
+      <c r="D6" s="287"/>
+      <c r="E6" s="287"/>
+      <c r="F6" s="287"/>
+      <c r="G6" s="288"/>
+      <c r="H6" s="289"/>
+      <c r="I6" s="287"/>
+      <c r="J6" s="287"/>
+      <c r="K6" s="287"/>
+      <c r="L6" s="287"/>
+      <c r="M6" s="287"/>
+      <c r="N6" s="287"/>
+      <c r="O6" s="288"/>
     </row>
     <row r="7" spans="1:15" s="54" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A7" s="304" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="305"/>
-      <c r="C7" s="305"/>
-      <c r="D7" s="306" t="s">
+      <c r="A7" s="310" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="311"/>
+      <c r="C7" s="311"/>
+      <c r="D7" s="312" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="306"/>
-      <c r="F7" s="306"/>
-      <c r="G7" s="306"/>
-      <c r="H7" s="307" t="s">
+      <c r="E7" s="312"/>
+      <c r="F7" s="312"/>
+      <c r="G7" s="312"/>
+      <c r="H7" s="313" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="308"/>
+      <c r="I7" s="314"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -6970,9 +6975,9 @@
       <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:15" s="54" customFormat="1" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A8" s="264"/>
-      <c r="B8" s="265"/>
-      <c r="C8" s="265"/>
+      <c r="A8" s="248"/>
+      <c r="B8" s="249"/>
+      <c r="C8" s="249"/>
       <c r="D8" s="7">
         <v>1</v>
       </c>
@@ -6985,8 +6990,8 @@
       <c r="G8" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="242"/>
-      <c r="I8" s="309"/>
+      <c r="H8" s="208"/>
+      <c r="I8" s="315"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -7014,10 +7019,10 @@
         <f t="shared" ref="G9:G38" si="0">AVERAGE(D9:F9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="310">
-        <v>0</v>
-      </c>
-      <c r="I9" s="311"/>
+      <c r="H9" s="316">
+        <v>0</v>
+      </c>
+      <c r="I9" s="317"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -7913,10 +7918,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="292">
-        <v>0</v>
-      </c>
-      <c r="I38" s="293"/>
+      <c r="H38" s="318">
+        <v>0</v>
+      </c>
+      <c r="I38" s="319"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
@@ -7930,18 +7935,18 @@
       <c r="C39" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="251" t="e">
+      <c r="D39" s="274" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="252"/>
-      <c r="F39" s="252"/>
-      <c r="G39" s="254"/>
-      <c r="H39" s="294">
+      <c r="E39" s="275"/>
+      <c r="F39" s="275"/>
+      <c r="G39" s="277"/>
+      <c r="H39" s="320">
         <f>AVERAGE(H9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="295"/>
+      <c r="I39" s="321"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
@@ -7955,18 +7960,18 @@
       <c r="C40" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="258" t="e">
+      <c r="D40" s="281" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="259"/>
-      <c r="F40" s="259"/>
-      <c r="G40" s="261"/>
-      <c r="H40" s="296">
+      <c r="E40" s="282"/>
+      <c r="F40" s="282"/>
+      <c r="G40" s="284"/>
+      <c r="H40" s="322">
         <f>MIN(I9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="297"/>
+      <c r="I40" s="323"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
@@ -7980,18 +7985,18 @@
       <c r="C41" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="285" t="e">
+      <c r="D41" s="325" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="286"/>
-      <c r="F41" s="286"/>
-      <c r="G41" s="287"/>
-      <c r="H41" s="288">
+      <c r="E41" s="326"/>
+      <c r="F41" s="326"/>
+      <c r="G41" s="327"/>
+      <c r="H41" s="328">
         <f>MAX(I9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="289"/>
+      <c r="I41" s="329"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
       <c r="L41" s="11"/>
@@ -8003,32 +8008,32 @@
       <c r="A42" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="219"/>
-      <c r="C42" s="219"/>
-      <c r="D42" s="220" t="s">
+      <c r="B42" s="229"/>
+      <c r="C42" s="229"/>
+      <c r="D42" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="220"/>
-      <c r="F42" s="220"/>
-      <c r="G42" s="220"/>
+      <c r="E42" s="230"/>
+      <c r="F42" s="230"/>
+      <c r="G42" s="230"/>
       <c r="H42" s="29"/>
       <c r="I42" s="29"/>
       <c r="J42" s="29"/>
-      <c r="K42" s="202" t="s">
+      <c r="K42" s="212" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="202"/>
-      <c r="M42" s="220"/>
-      <c r="N42" s="220"/>
+      <c r="L42" s="212"/>
+      <c r="M42" s="230"/>
+      <c r="N42" s="230"/>
       <c r="O42" s="66" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A43" s="201" t="s">
+      <c r="A43" s="211" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="201"/>
+      <c r="B43" s="211"/>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
       <c r="E43" s="1"/>
@@ -8037,12 +8042,12 @@
         <f>Page1!G42</f>
         <v>Reference:</v>
       </c>
-      <c r="H43" s="218" t="str">
+      <c r="H43" s="228" t="str">
         <f>Page1!H42</f>
         <v>MRMP: 00004833.002 GCAS:21088174.001</v>
       </c>
-      <c r="I43" s="218"/>
-      <c r="J43" s="218"/>
+      <c r="I43" s="228"/>
+      <c r="J43" s="228"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="29"/>
@@ -8050,10 +8055,10 @@
       <c r="O43" s="29"/>
     </row>
     <row r="44" spans="1:15" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="201" t="s">
+      <c r="A44" s="211" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="201"/>
+      <c r="B44" s="211"/>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
       <c r="E44" s="29"/>
@@ -8065,225 +8070,312 @@
       <c r="K44" s="29"/>
       <c r="L44" s="29"/>
       <c r="M44" s="29"/>
-      <c r="N44" s="203" t="s">
+      <c r="N44" s="213" t="s">
         <v>47</v>
       </c>
-      <c r="O44" s="203"/>
+      <c r="O44" s="213"/>
     </row>
     <row r="45" spans="1:15" s="54" customFormat="1"/>
     <row r="46" spans="1:15" s="54" customFormat="1"/>
     <row r="56" spans="4:15">
-      <c r="D56" s="284"/>
-      <c r="E56" s="284"/>
-      <c r="F56" s="284"/>
-      <c r="G56" s="284"/>
-      <c r="H56" s="284"/>
-      <c r="I56" s="284"/>
-      <c r="J56" s="284"/>
-      <c r="K56" s="284"/>
-      <c r="L56" s="284"/>
-      <c r="M56" s="284"/>
-      <c r="N56" s="284"/>
-      <c r="O56" s="284"/>
+      <c r="D56" s="324"/>
+      <c r="E56" s="324"/>
+      <c r="F56" s="324"/>
+      <c r="G56" s="324"/>
+      <c r="H56" s="324"/>
+      <c r="I56" s="324"/>
+      <c r="J56" s="324"/>
+      <c r="K56" s="324"/>
+      <c r="L56" s="324"/>
+      <c r="M56" s="324"/>
+      <c r="N56" s="324"/>
+      <c r="O56" s="324"/>
     </row>
     <row r="57" spans="4:15">
-      <c r="D57" s="284"/>
-      <c r="E57" s="284"/>
-      <c r="F57" s="284"/>
-      <c r="G57" s="284"/>
-      <c r="H57" s="284"/>
-      <c r="I57" s="284"/>
-      <c r="J57" s="284"/>
-      <c r="K57" s="284"/>
-      <c r="L57" s="284"/>
-      <c r="M57" s="284"/>
-      <c r="N57" s="284"/>
-      <c r="O57" s="284"/>
+      <c r="D57" s="324"/>
+      <c r="E57" s="324"/>
+      <c r="F57" s="324"/>
+      <c r="G57" s="324"/>
+      <c r="H57" s="324"/>
+      <c r="I57" s="324"/>
+      <c r="J57" s="324"/>
+      <c r="K57" s="324"/>
+      <c r="L57" s="324"/>
+      <c r="M57" s="324"/>
+      <c r="N57" s="324"/>
+      <c r="O57" s="324"/>
     </row>
     <row r="58" spans="4:15">
-      <c r="D58" s="284"/>
-      <c r="E58" s="284"/>
-      <c r="F58" s="284"/>
-      <c r="G58" s="284"/>
-      <c r="H58" s="284"/>
-      <c r="I58" s="284"/>
-      <c r="J58" s="284"/>
-      <c r="K58" s="284"/>
-      <c r="L58" s="284"/>
-      <c r="M58" s="284"/>
-      <c r="N58" s="284"/>
-      <c r="O58" s="284"/>
+      <c r="D58" s="324"/>
+      <c r="E58" s="324"/>
+      <c r="F58" s="324"/>
+      <c r="G58" s="324"/>
+      <c r="H58" s="324"/>
+      <c r="I58" s="324"/>
+      <c r="J58" s="324"/>
+      <c r="K58" s="324"/>
+      <c r="L58" s="324"/>
+      <c r="M58" s="324"/>
+      <c r="N58" s="324"/>
+      <c r="O58" s="324"/>
     </row>
     <row r="59" spans="4:15">
-      <c r="D59" s="284"/>
-      <c r="E59" s="284"/>
-      <c r="F59" s="284"/>
-      <c r="G59" s="284"/>
-      <c r="H59" s="284"/>
-      <c r="I59" s="284"/>
-      <c r="J59" s="284"/>
-      <c r="K59" s="284"/>
-      <c r="L59" s="284"/>
-      <c r="M59" s="284"/>
-      <c r="N59" s="284"/>
-      <c r="O59" s="284"/>
+      <c r="D59" s="324"/>
+      <c r="E59" s="324"/>
+      <c r="F59" s="324"/>
+      <c r="G59" s="324"/>
+      <c r="H59" s="324"/>
+      <c r="I59" s="324"/>
+      <c r="J59" s="324"/>
+      <c r="K59" s="324"/>
+      <c r="L59" s="324"/>
+      <c r="M59" s="324"/>
+      <c r="N59" s="324"/>
+      <c r="O59" s="324"/>
     </row>
     <row r="60" spans="4:15">
-      <c r="D60" s="284"/>
-      <c r="E60" s="284"/>
-      <c r="F60" s="284"/>
-      <c r="G60" s="284"/>
-      <c r="H60" s="284"/>
-      <c r="I60" s="284"/>
-      <c r="J60" s="284"/>
-      <c r="K60" s="284"/>
-      <c r="L60" s="284"/>
-      <c r="M60" s="284"/>
-      <c r="N60" s="284"/>
-      <c r="O60" s="284"/>
+      <c r="D60" s="324"/>
+      <c r="E60" s="324"/>
+      <c r="F60" s="324"/>
+      <c r="G60" s="324"/>
+      <c r="H60" s="324"/>
+      <c r="I60" s="324"/>
+      <c r="J60" s="324"/>
+      <c r="K60" s="324"/>
+      <c r="L60" s="324"/>
+      <c r="M60" s="324"/>
+      <c r="N60" s="324"/>
+      <c r="O60" s="324"/>
     </row>
     <row r="61" spans="4:15">
-      <c r="D61" s="284"/>
-      <c r="E61" s="284"/>
-      <c r="F61" s="284"/>
-      <c r="G61" s="284"/>
-      <c r="H61" s="284"/>
-      <c r="I61" s="284"/>
-      <c r="J61" s="284"/>
-      <c r="K61" s="284"/>
-      <c r="L61" s="284"/>
-      <c r="M61" s="284"/>
-      <c r="N61" s="284"/>
-      <c r="O61" s="284"/>
+      <c r="D61" s="324"/>
+      <c r="E61" s="324"/>
+      <c r="F61" s="324"/>
+      <c r="G61" s="324"/>
+      <c r="H61" s="324"/>
+      <c r="I61" s="324"/>
+      <c r="J61" s="324"/>
+      <c r="K61" s="324"/>
+      <c r="L61" s="324"/>
+      <c r="M61" s="324"/>
+      <c r="N61" s="324"/>
+      <c r="O61" s="324"/>
     </row>
     <row r="62" spans="4:15">
-      <c r="D62" s="284"/>
-      <c r="E62" s="284"/>
-      <c r="F62" s="284"/>
-      <c r="G62" s="284"/>
-      <c r="H62" s="284"/>
-      <c r="I62" s="284"/>
-      <c r="J62" s="284"/>
-      <c r="K62" s="284"/>
-      <c r="L62" s="284"/>
-      <c r="M62" s="284"/>
-      <c r="N62" s="284"/>
-      <c r="O62" s="284"/>
+      <c r="D62" s="324"/>
+      <c r="E62" s="324"/>
+      <c r="F62" s="324"/>
+      <c r="G62" s="324"/>
+      <c r="H62" s="324"/>
+      <c r="I62" s="324"/>
+      <c r="J62" s="324"/>
+      <c r="K62" s="324"/>
+      <c r="L62" s="324"/>
+      <c r="M62" s="324"/>
+      <c r="N62" s="324"/>
+      <c r="O62" s="324"/>
     </row>
     <row r="63" spans="4:15">
-      <c r="D63" s="284"/>
-      <c r="E63" s="284"/>
-      <c r="F63" s="284"/>
-      <c r="G63" s="284"/>
-      <c r="H63" s="284"/>
-      <c r="I63" s="284"/>
-      <c r="J63" s="284"/>
-      <c r="K63" s="284"/>
-      <c r="L63" s="284"/>
-      <c r="M63" s="284"/>
-      <c r="N63" s="284"/>
-      <c r="O63" s="284"/>
+      <c r="D63" s="324"/>
+      <c r="E63" s="324"/>
+      <c r="F63" s="324"/>
+      <c r="G63" s="324"/>
+      <c r="H63" s="324"/>
+      <c r="I63" s="324"/>
+      <c r="J63" s="324"/>
+      <c r="K63" s="324"/>
+      <c r="L63" s="324"/>
+      <c r="M63" s="324"/>
+      <c r="N63" s="324"/>
+      <c r="O63" s="324"/>
     </row>
     <row r="64" spans="4:15">
-      <c r="D64" s="284"/>
-      <c r="E64" s="284"/>
-      <c r="F64" s="284"/>
-      <c r="G64" s="284"/>
-      <c r="H64" s="284"/>
-      <c r="I64" s="284"/>
-      <c r="J64" s="284"/>
-      <c r="K64" s="284"/>
-      <c r="L64" s="284"/>
-      <c r="M64" s="284"/>
-      <c r="N64" s="284"/>
-      <c r="O64" s="284"/>
+      <c r="D64" s="324"/>
+      <c r="E64" s="324"/>
+      <c r="F64" s="324"/>
+      <c r="G64" s="324"/>
+      <c r="H64" s="324"/>
+      <c r="I64" s="324"/>
+      <c r="J64" s="324"/>
+      <c r="K64" s="324"/>
+      <c r="L64" s="324"/>
+      <c r="M64" s="324"/>
+      <c r="N64" s="324"/>
+      <c r="O64" s="324"/>
     </row>
     <row r="65" spans="4:15">
-      <c r="D65" s="284"/>
-      <c r="E65" s="284"/>
-      <c r="F65" s="284"/>
-      <c r="G65" s="284"/>
-      <c r="H65" s="284"/>
-      <c r="I65" s="284"/>
-      <c r="J65" s="284"/>
-      <c r="K65" s="284"/>
-      <c r="L65" s="284"/>
-      <c r="M65" s="284"/>
-      <c r="N65" s="284"/>
-      <c r="O65" s="284"/>
+      <c r="D65" s="324"/>
+      <c r="E65" s="324"/>
+      <c r="F65" s="324"/>
+      <c r="G65" s="324"/>
+      <c r="H65" s="324"/>
+      <c r="I65" s="324"/>
+      <c r="J65" s="324"/>
+      <c r="K65" s="324"/>
+      <c r="L65" s="324"/>
+      <c r="M65" s="324"/>
+      <c r="N65" s="324"/>
+      <c r="O65" s="324"/>
     </row>
     <row r="66" spans="4:15">
-      <c r="D66" s="284"/>
-      <c r="E66" s="284"/>
-      <c r="F66" s="284"/>
-      <c r="G66" s="284"/>
-      <c r="H66" s="284"/>
-      <c r="I66" s="284"/>
-      <c r="J66" s="284"/>
-      <c r="K66" s="284"/>
-      <c r="L66" s="284"/>
-      <c r="M66" s="284"/>
-      <c r="N66" s="284"/>
-      <c r="O66" s="284"/>
+      <c r="D66" s="324"/>
+      <c r="E66" s="324"/>
+      <c r="F66" s="324"/>
+      <c r="G66" s="324"/>
+      <c r="H66" s="324"/>
+      <c r="I66" s="324"/>
+      <c r="J66" s="324"/>
+      <c r="K66" s="324"/>
+      <c r="L66" s="324"/>
+      <c r="M66" s="324"/>
+      <c r="N66" s="324"/>
+      <c r="O66" s="324"/>
     </row>
     <row r="67" spans="4:15">
-      <c r="D67" s="284"/>
-      <c r="E67" s="284"/>
-      <c r="F67" s="284"/>
-      <c r="G67" s="284"/>
-      <c r="H67" s="284"/>
-      <c r="I67" s="284"/>
-      <c r="J67" s="284"/>
-      <c r="K67" s="284"/>
-      <c r="L67" s="284"/>
-      <c r="M67" s="284"/>
-      <c r="N67" s="284"/>
-      <c r="O67" s="284"/>
+      <c r="D67" s="324"/>
+      <c r="E67" s="324"/>
+      <c r="F67" s="324"/>
+      <c r="G67" s="324"/>
+      <c r="H67" s="324"/>
+      <c r="I67" s="324"/>
+      <c r="J67" s="324"/>
+      <c r="K67" s="324"/>
+      <c r="L67" s="324"/>
+      <c r="M67" s="324"/>
+      <c r="N67" s="324"/>
+      <c r="O67" s="324"/>
     </row>
     <row r="68" spans="4:15">
-      <c r="D68" s="284"/>
-      <c r="E68" s="284"/>
-      <c r="F68" s="284"/>
-      <c r="G68" s="284"/>
-      <c r="H68" s="284"/>
-      <c r="I68" s="284"/>
-      <c r="J68" s="284"/>
-      <c r="K68" s="284"/>
-      <c r="L68" s="284"/>
-      <c r="M68" s="284"/>
-      <c r="N68" s="284"/>
-      <c r="O68" s="284"/>
+      <c r="D68" s="324"/>
+      <c r="E68" s="324"/>
+      <c r="F68" s="324"/>
+      <c r="G68" s="324"/>
+      <c r="H68" s="324"/>
+      <c r="I68" s="324"/>
+      <c r="J68" s="324"/>
+      <c r="K68" s="324"/>
+      <c r="L68" s="324"/>
+      <c r="M68" s="324"/>
+      <c r="N68" s="324"/>
+      <c r="O68" s="324"/>
     </row>
     <row r="69" spans="4:15">
-      <c r="D69" s="284"/>
-      <c r="E69" s="284"/>
-      <c r="F69" s="284"/>
-      <c r="G69" s="284"/>
-      <c r="H69" s="284"/>
-      <c r="I69" s="284"/>
-      <c r="J69" s="284"/>
-      <c r="K69" s="284"/>
-      <c r="L69" s="284"/>
-      <c r="M69" s="284"/>
-      <c r="N69" s="284"/>
-      <c r="O69" s="284"/>
+      <c r="D69" s="324"/>
+      <c r="E69" s="324"/>
+      <c r="F69" s="324"/>
+      <c r="G69" s="324"/>
+      <c r="H69" s="324"/>
+      <c r="I69" s="324"/>
+      <c r="J69" s="324"/>
+      <c r="K69" s="324"/>
+      <c r="L69" s="324"/>
+      <c r="M69" s="324"/>
+      <c r="N69" s="324"/>
+      <c r="O69" s="324"/>
     </row>
     <row r="70" spans="4:15">
-      <c r="D70" s="284"/>
-      <c r="E70" s="284"/>
-      <c r="F70" s="284"/>
-      <c r="G70" s="284"/>
-      <c r="H70" s="284"/>
-      <c r="I70" s="284"/>
-      <c r="J70" s="284"/>
-      <c r="K70" s="284"/>
-      <c r="L70" s="284"/>
-      <c r="M70" s="284"/>
-      <c r="N70" s="284"/>
-      <c r="O70" s="284"/>
+      <c r="D70" s="324"/>
+      <c r="E70" s="324"/>
+      <c r="F70" s="324"/>
+      <c r="G70" s="324"/>
+      <c r="H70" s="324"/>
+      <c r="I70" s="324"/>
+      <c r="J70" s="324"/>
+      <c r="K70" s="324"/>
+      <c r="L70" s="324"/>
+      <c r="M70" s="324"/>
+      <c r="N70" s="324"/>
+      <c r="O70" s="324"/>
     </row>
   </sheetData>
   <mergeCells count="111">
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:O69"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:O70"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:O67"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:O68"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:O65"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:O63"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:O64"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:O61"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:O62"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:O60"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:O57"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:O58"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:O56"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:G42"/>
     <mergeCell ref="M42:N42"/>
@@ -8308,93 +8400,6 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="L57:O57"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="L58:O58"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="H56:K56"/>
-    <mergeCell ref="L56:O56"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="L61:O61"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="L62:O62"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="H59:K59"/>
-    <mergeCell ref="L59:O59"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="L60:O60"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="L65:O65"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="L66:O66"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="L63:O63"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="L64:O64"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="L69:O69"/>
-    <mergeCell ref="D70:G70"/>
-    <mergeCell ref="H70:K70"/>
-    <mergeCell ref="L70:O70"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="L67:O67"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="L68:O68"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G38">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
